--- a/RBLX.xlsx
+++ b/RBLX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDBEEEF-848D-4891-9424-F6347E4571D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE573E6F-0CAA-412C-8191-A3AF24B07AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="585" windowWidth="23670" windowHeight="14145" activeTab="1" xr2:uid="{D545362F-A2DB-409B-B278-689260F0007A}"/>
+    <workbookView xWindow="810" yWindow="525" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{D545362F-A2DB-409B-B278-689260F0007A}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>RBLX</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Tax Rate</t>
   </si>
   <si>
-    <t>Gross Margin</t>
-  </si>
-  <si>
     <t>Operating Margin</t>
   </si>
   <si>
@@ -169,6 +166,12 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>COGS Gross Margin</t>
+  </si>
+  <si>
+    <t>Gross Margin DEVEX</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -229,6 +232,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -259,7 +264,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -309,7 +314,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -350,6 +355,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -742,13 +751,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5B609E-4374-4BEC-B6D4-612C377C6303}">
-  <dimension ref="A1:DP36"/>
+  <dimension ref="A1:DP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -763,22 +772,22 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="5">
         <v>2022</v>
@@ -804,7 +813,7 @@
         <v>2027</v>
       </c>
       <c r="P1" s="5">
-        <f t="shared" si="0"/>
+        <f>O1+1</f>
         <v>2028</v>
       </c>
       <c r="Q1" s="5">
@@ -815,18 +824,18 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="7">
-        <f>J7/J4</f>
+        <f>J6/J4</f>
         <v>0.28035955056179773</v>
       </c>
       <c r="K2" s="7">
-        <f t="shared" ref="K2:L2" si="1">K7/K4</f>
+        <f>K6/K4</f>
         <v>0.26462917976564737</v>
       </c>
       <c r="L2" s="7">
-        <f t="shared" si="1"/>
+        <f>L6/L4</f>
         <v>0.25619100499722375</v>
       </c>
       <c r="M2" s="7">
@@ -875,19 +884,19 @@
         <v>4682.6000000000004</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" ref="N4:Q4" si="2">M4*1.3</f>
+        <f t="shared" ref="N4:Q4" si="1">M4*1.3</f>
         <v>6087.380000000001</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7913.5940000000019</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="2"/>
+        <f>O4*1.3</f>
         <v>10287.672200000003</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13373.973860000004</v>
       </c>
     </row>
@@ -909,91 +918,91 @@
         <v>1005.0970799999999</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" ref="N5:Q5" si="3">N4*(1-N26)</f>
+        <f>N4*(1-N26)</f>
         <v>1258.8186660400002</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="3"/>
+        <f>O4*(1-O26)</f>
         <v>1573.6929685105206</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="3"/>
+        <f>P4*(1-P26)</f>
         <v>1963.3821456543128</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="3"/>
+        <f>Q4*(1-Q26)</f>
         <v>2444.181018644113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2">
-        <f>J4-J5</f>
-        <v>1677.35</v>
+        <v>623.79999999999995</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ref="K6:Q6" si="4">K4-K5</f>
-        <v>2150.1</v>
+        <v>740.75</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="4"/>
-        <v>2800.84</v>
+        <v>922.8</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="4"/>
-        <v>3677.5029200000004</v>
+        <f>M4*M2</f>
+        <v>1217.4760000000001</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="4"/>
-        <v>4828.5613339600004</v>
+        <f>N4*N2</f>
+        <v>1582.7188000000003</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="4"/>
-        <v>6339.9010314894813</v>
+        <f>O4*O2</f>
+        <v>2057.5344400000004</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="4"/>
-        <v>8324.290054345689</v>
+        <f>P4*P2</f>
+        <v>2674.7947720000006</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="4"/>
-        <v>10929.792841355891</v>
+        <f>Q4*Q2</f>
+        <v>3477.2332036000012</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2">
-        <v>623.79999999999995</v>
+        <f>J4-SUM(J5:J6)</f>
+        <v>1053.5500000000002</v>
       </c>
       <c r="K7" s="2">
-        <v>740.75</v>
+        <f t="shared" ref="K7:Q7" si="2">K4-SUM(K5:K6)</f>
+        <v>1409.35</v>
       </c>
       <c r="L7" s="2">
-        <v>922.8</v>
+        <f t="shared" si="2"/>
+        <v>1878.04</v>
       </c>
       <c r="M7" s="2">
-        <f>M4*M2</f>
-        <v>1217.4760000000001</v>
+        <f t="shared" si="2"/>
+        <v>2460.0269200000002</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" ref="N7:Q7" si="5">N4*N2</f>
-        <v>1582.7188000000003</v>
+        <f t="shared" si="2"/>
+        <v>3245.8425339600008</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="5"/>
-        <v>2057.5344400000004</v>
+        <f t="shared" si="2"/>
+        <v>4282.3665914894809</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="5"/>
-        <v>2674.7947720000006</v>
+        <f t="shared" si="2"/>
+        <v>5649.4952823456897</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="5"/>
-        <v>3477.2332036000012</v>
+        <f t="shared" si="2"/>
+        <v>7452.5596377558895</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -1014,19 +1023,19 @@
         <v>961.17000000000007</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" ref="N8:Q8" si="6">M8*1.05</f>
+        <f t="shared" ref="N8:Q8" si="3">M8*1.05</f>
         <v>1009.2285000000002</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1059.6899250000001</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1112.6744212500003</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1168.3081423125004</v>
       </c>
     </row>
@@ -1044,24 +1053,24 @@
         <v>1444.2</v>
       </c>
       <c r="M9" s="2">
-        <f>M4*0.35</f>
-        <v>1638.91</v>
+        <f>L9*1.1</f>
+        <v>1588.6200000000001</v>
       </c>
       <c r="N9" s="2">
-        <f>N4*0.3</f>
-        <v>1826.2140000000002</v>
+        <f t="shared" ref="N9:Q9" si="4">M9*1.1</f>
+        <v>1747.4820000000002</v>
       </c>
       <c r="O9" s="2">
-        <f>O4*0.25</f>
-        <v>1978.3985000000005</v>
+        <f t="shared" si="4"/>
+        <v>1922.2302000000004</v>
       </c>
       <c r="P9" s="2">
-        <f>P4*0.2</f>
-        <v>2057.5344400000008</v>
+        <f t="shared" si="4"/>
+        <v>2114.4532200000008</v>
       </c>
       <c r="Q9" s="2">
-        <f>Q4*0.15</f>
-        <v>2006.0960790000004</v>
+        <f t="shared" si="4"/>
+        <v>2325.8985420000013</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -1083,19 +1092,19 @@
         <v>419.72500000000002</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" ref="N10:Q10" si="7">M10*1.03</f>
+        <f t="shared" ref="N10:Q10" si="5">M10*1.03</f>
         <v>432.31675000000001</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>445.28625250000005</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>458.64484007500005</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>472.40418527725006</v>
       </c>
     </row>
@@ -1113,24 +1122,24 @@
         <v>174.2</v>
       </c>
       <c r="M11" s="2">
-        <f>L11*1.06</f>
-        <v>184.65199999999999</v>
+        <f>L11*1.08</f>
+        <v>188.136</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11:Q11" si="8">M11*1.06</f>
-        <v>195.73112</v>
+        <f t="shared" ref="N11:Q11" si="6">M11*1.08</f>
+        <v>203.18688</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="8"/>
-        <v>207.47498720000002</v>
+        <f t="shared" si="6"/>
+        <v>219.44183040000001</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="8"/>
-        <v>219.92348643200003</v>
+        <f t="shared" si="6"/>
+        <v>236.99717683200004</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="8"/>
-        <v>233.11889561792006</v>
+        <f t="shared" si="6"/>
+        <v>255.95695097856006</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1138,36 +1147,36 @@
         <v>16</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" ref="J12:L12" si="9">SUM(J7:J11)</f>
-        <v>2601.2000000000003</v>
+        <f>SUM(J8:J11)</f>
+        <v>1977.3999999999999</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="9"/>
-        <v>3409.35</v>
+        <f t="shared" ref="K12:Q12" si="7">SUM(K8:K11)</f>
+        <v>2668.6</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="9"/>
-        <v>3864.0999999999995</v>
+        <f t="shared" si="7"/>
+        <v>2941.2999999999997</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" ref="M12" si="10">SUM(M7:M11)</f>
-        <v>4421.9330000000009</v>
+        <f t="shared" si="7"/>
+        <v>3157.6509999999998</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" ref="N12" si="11">SUM(N7:N11)</f>
-        <v>5046.209170000001</v>
+        <f t="shared" si="7"/>
+        <v>3392.2141300000003</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" ref="O12" si="12">SUM(O7:O11)</f>
-        <v>5748.3841047000014</v>
+        <f t="shared" si="7"/>
+        <v>3646.6482079000007</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" ref="P12" si="13">SUM(P7:P11)</f>
-        <v>6523.5719597570014</v>
+        <f t="shared" si="7"/>
+        <v>3922.7696581570012</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" ref="Q12" si="14">SUM(Q7:Q11)</f>
-        <v>7357.1605058076721</v>
+        <f t="shared" si="7"/>
+        <v>4222.5678205683116</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -1175,36 +1184,36 @@
         <v>17</v>
       </c>
       <c r="J13" s="2">
-        <f>J6-J12</f>
-        <v>-923.85000000000036</v>
+        <f>J7-J12</f>
+        <v>-923.84999999999968</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" ref="K13:L13" si="15">K6-K12</f>
+        <f t="shared" ref="K13:Q13" si="8">K7-K12</f>
         <v>-1259.25</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="15"/>
-        <v>-1063.2599999999993</v>
+        <f t="shared" si="8"/>
+        <v>-1063.2599999999998</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" ref="M13" si="16">M6-M12</f>
-        <v>-744.43008000000054</v>
+        <f t="shared" si="8"/>
+        <v>-697.62407999999959</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" ref="N13" si="17">N6-N12</f>
-        <v>-217.64783604000058</v>
+        <f t="shared" si="8"/>
+        <v>-146.37159603999953</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" ref="O13" si="18">O6-O12</f>
-        <v>591.51692678947984</v>
+        <f t="shared" si="8"/>
+        <v>635.71838358948025</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" ref="P13" si="19">P6-P12</f>
-        <v>1800.7180945886876</v>
+        <f t="shared" si="8"/>
+        <v>1726.7256241886885</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" ref="Q13" si="20">Q6-Q12</f>
-        <v>3572.6323355482191</v>
+        <f t="shared" si="8"/>
+        <v>3229.9918171875779</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1221,24 +1230,24 @@
         <v>179.5</v>
       </c>
       <c r="M14" s="2">
-        <f>L34*$T$21</f>
+        <f>L35*$T$20</f>
         <v>-35.491200000000028</v>
       </c>
       <c r="N14" s="2">
-        <f>M34*$T$21</f>
-        <v>-79.946712960000056</v>
+        <f>M35*$T$20</f>
+        <v>-79.478116799999995</v>
       </c>
       <c r="O14" s="2">
-        <f>N34*$T$21</f>
-        <v>-96.909602253000088</v>
+        <f>N35*$T$20</f>
+        <v>-93.029099570399964</v>
       </c>
       <c r="P14" s="2">
-        <f>O34*$T$21</f>
-        <v>-68.71698475442075</v>
+        <f>O35*$T$20</f>
+        <v>-63.723878233369618</v>
       </c>
       <c r="Q14" s="2">
-        <f>P34*$T$21</f>
-        <v>30.007078506132451</v>
+        <f>P35*$T$20</f>
+        <v>26.078216048217598</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1262,38 +1271,38 @@
       </c>
       <c r="J16" s="2">
         <f>SUM(J13:J15)</f>
-        <v>-924.95000000000039</v>
+        <v>-924.9499999999997</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" ref="K16:L16" si="21">SUM(K13:K15)</f>
+        <f t="shared" ref="K16:L16" si="9">SUM(K13:K15)</f>
         <v>-1158.45</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="21"/>
-        <v>-924.95999999999935</v>
+        <f t="shared" si="9"/>
+        <v>-924.95999999999981</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" ref="M16" si="22">SUM(M13:M15)</f>
-        <v>-779.92128000000059</v>
+        <f t="shared" ref="M16" si="10">SUM(M13:M15)</f>
+        <v>-733.11527999999964</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" ref="N16" si="23">SUM(N13:N15)</f>
-        <v>-297.59454900000065</v>
+        <f t="shared" ref="N16" si="11">SUM(N13:N15)</f>
+        <v>-225.84971283999954</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" ref="O16" si="24">SUM(O13:O15)</f>
-        <v>494.60732453647972</v>
+        <f t="shared" ref="O16" si="12">SUM(O13:O15)</f>
+        <v>542.68928401908033</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" ref="P16" si="25">SUM(P13:P15)</f>
-        <v>1732.0011098342668</v>
+        <f t="shared" ref="P16" si="13">SUM(P13:P15)</f>
+        <v>1663.0017459553189</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16" si="26">SUM(Q13:Q15)</f>
-        <v>3602.6394140543516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:120" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q16" si="14">SUM(Q13:Q15)</f>
+        <v>3256.0700332357956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1308,505 +1317,505 @@
       </c>
       <c r="M17" s="2">
         <f>M16*M23</f>
-        <v>-38.996064000000032</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" ref="N17:Q17" si="27">N16*N23</f>
-        <v>-14.879727450000033</v>
+        <f t="shared" ref="N17:Q17" si="15">N16*N23</f>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="27"/>
-        <v>24.730366226823989</v>
+        <f t="shared" si="15"/>
+        <v>54.268928401908035</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="27"/>
-        <v>86.600055491713348</v>
+        <f t="shared" si="15"/>
+        <v>166.3001745955319</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="27"/>
-        <v>180.13197070271758</v>
-      </c>
-    </row>
-    <row r="18" spans="1:120" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>618.65330631480117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:118" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="4">
         <f>J16-J17</f>
-        <v>-928.45000000000039</v>
+        <v>-928.4499999999997</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" ref="K18:L18" si="28">K16-K17</f>
+        <f t="shared" ref="K18:L18" si="16">K16-K17</f>
         <v>-1158.8500000000001</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="28"/>
-        <v>-929.05999999999938</v>
+        <f t="shared" si="16"/>
+        <v>-929.05999999999983</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" ref="M18" si="29">M16-M17</f>
-        <v>-740.92521600000055</v>
+        <f t="shared" ref="M18" si="17">M16-M17</f>
+        <v>-733.11527999999964</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" ref="N18" si="30">N16-N17</f>
-        <v>-282.71482155000064</v>
+        <f t="shared" ref="N18" si="18">N16-N17</f>
+        <v>-225.84971283999954</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" ref="O18" si="31">O16-O17</f>
-        <v>469.87695830965572</v>
+        <f t="shared" ref="O18" si="19">O16-O17</f>
+        <v>488.42035561717228</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" ref="P18" si="32">P16-P17</f>
-        <v>1645.4010543425534</v>
+        <f t="shared" ref="P18" si="20">P16-P17</f>
+        <v>1496.7015713597871</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" ref="Q18" si="33">Q16-Q17</f>
-        <v>3422.5074433516338</v>
+        <f t="shared" ref="Q18" si="21">Q16-Q17</f>
+        <v>2637.4167269209943</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" ref="R18:AW18" si="34">Q18*(1+$T$22)</f>
-        <v>3456.7325177851503</v>
+        <f>Q18*(1+$T$21)</f>
+        <v>2663.7908941902042</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" si="34"/>
-        <v>3491.299842963002</v>
+        <f>R18*(1+$T$21)</f>
+        <v>2690.4288031321062</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="34"/>
-        <v>3526.2128413926321</v>
+        <f>S18*(1+$T$21)</f>
+        <v>2717.3330911634271</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="34"/>
-        <v>3561.4749698065584</v>
+        <f>T18*(1+$T$21)</f>
+        <v>2744.5064220750614</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="34"/>
-        <v>3597.0897195046241</v>
+        <f>U18*(1+$T$21)</f>
+        <v>2771.9514862958122</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" si="34"/>
-        <v>3633.0606166996704</v>
+        <f>V18*(1+$T$21)</f>
+        <v>2799.6710011587702</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="34"/>
-        <v>3669.3912228666672</v>
+        <f>W18*(1+$T$21)</f>
+        <v>2827.667711170358</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" si="34"/>
-        <v>3706.085135095334</v>
+        <f>X18*(1+$T$21)</f>
+        <v>2855.9443882820615</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" si="34"/>
-        <v>3743.1459864462872</v>
+        <f>Y18*(1+$T$21)</f>
+        <v>2884.5038321648822</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" si="34"/>
-        <v>3780.57744631075</v>
+        <f>Z18*(1+$T$21)</f>
+        <v>2913.3488704865308</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" si="34"/>
-        <v>3818.3832207738574</v>
+        <f>AA18*(1+$T$21)</f>
+        <v>2942.482359191396</v>
       </c>
       <c r="AC18" s="4">
-        <f t="shared" si="34"/>
-        <v>3856.5670529815961</v>
+        <f>AB18*(1+$T$21)</f>
+        <v>2971.90718278331</v>
       </c>
       <c r="AD18" s="4">
-        <f t="shared" si="34"/>
-        <v>3895.1327235114122</v>
+        <f>AC18*(1+$T$21)</f>
+        <v>3001.6262546111429</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" si="34"/>
-        <v>3934.0840507465264</v>
+        <f>AD18*(1+$T$21)</f>
+        <v>3031.6425171572546</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" si="34"/>
-        <v>3973.4248912539915</v>
+        <f>AE18*(1+$T$21)</f>
+        <v>3061.9589423288271</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" si="34"/>
-        <v>4013.1591401665314</v>
+        <f>AF18*(1+$T$21)</f>
+        <v>3092.5785317521154</v>
       </c>
       <c r="AH18" s="4">
-        <f t="shared" si="34"/>
-        <v>4053.2907315681969</v>
+        <f>AG18*(1+$T$21)</f>
+        <v>3123.5043170696367</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" si="34"/>
-        <v>4093.8236388838791</v>
+        <f>AH18*(1+$T$21)</f>
+        <v>3154.7393602403331</v>
       </c>
       <c r="AJ18" s="4">
-        <f t="shared" si="34"/>
-        <v>4134.7618752727176</v>
+        <f>AI18*(1+$T$21)</f>
+        <v>3186.2867538427363</v>
       </c>
       <c r="AK18" s="4">
-        <f t="shared" si="34"/>
-        <v>4176.1094940254452</v>
+        <f>AJ18*(1+$T$21)</f>
+        <v>3218.1496213811638</v>
       </c>
       <c r="AL18" s="4">
-        <f t="shared" si="34"/>
-        <v>4217.8705889656994</v>
+        <f>AK18*(1+$T$21)</f>
+        <v>3250.3311175949752</v>
       </c>
       <c r="AM18" s="4">
-        <f t="shared" si="34"/>
-        <v>4260.0492948553565</v>
+        <f>AL18*(1+$T$21)</f>
+        <v>3282.8344287709251</v>
       </c>
       <c r="AN18" s="4">
-        <f t="shared" si="34"/>
-        <v>4302.6497878039099</v>
+        <f>AM18*(1+$T$21)</f>
+        <v>3315.6627730586342</v>
       </c>
       <c r="AO18" s="4">
-        <f t="shared" si="34"/>
-        <v>4345.6762856819487</v>
+        <f>AN18*(1+$T$21)</f>
+        <v>3348.8194007892207</v>
       </c>
       <c r="AP18" s="4">
-        <f t="shared" si="34"/>
-        <v>4389.133048538768</v>
+        <f>AO18*(1+$T$21)</f>
+        <v>3382.3075947971129</v>
       </c>
       <c r="AQ18" s="4">
-        <f t="shared" si="34"/>
-        <v>4433.0243790241557</v>
+        <f>AP18*(1+$T$21)</f>
+        <v>3416.130670745084</v>
       </c>
       <c r="AR18" s="4">
-        <f t="shared" si="34"/>
-        <v>4477.3546228143969</v>
+        <f>AQ18*(1+$T$21)</f>
+        <v>3450.2919774525349</v>
       </c>
       <c r="AS18" s="4">
-        <f t="shared" si="34"/>
-        <v>4522.1281690425412</v>
+        <f>AR18*(1+$T$21)</f>
+        <v>3484.7948972270601</v>
       </c>
       <c r="AT18" s="4">
-        <f t="shared" si="34"/>
-        <v>4567.3494507329669</v>
+        <f>AS18*(1+$T$21)</f>
+        <v>3519.642846199331</v>
       </c>
       <c r="AU18" s="4">
-        <f t="shared" si="34"/>
-        <v>4613.0229452402964</v>
+        <f>AT18*(1+$T$21)</f>
+        <v>3554.8392746613245</v>
       </c>
       <c r="AV18" s="4">
-        <f t="shared" si="34"/>
-        <v>4659.1531746926994</v>
+        <f>AU18*(1+$T$21)</f>
+        <v>3590.3876674079379</v>
       </c>
       <c r="AW18" s="4">
-        <f t="shared" si="34"/>
-        <v>4705.7447064396265</v>
+        <f>AV18*(1+$T$21)</f>
+        <v>3626.2915440820175</v>
       </c>
       <c r="AX18" s="4">
-        <f t="shared" ref="AX18:CC18" si="35">AW18*(1+$T$22)</f>
-        <v>4752.8021535040225</v>
+        <f>AW18*(1+$T$21)</f>
+        <v>3662.5544595228375</v>
       </c>
       <c r="AY18" s="4">
-        <f t="shared" si="35"/>
-        <v>4800.3301750390629</v>
+        <f>AX18*(1+$T$21)</f>
+        <v>3699.1800041180659</v>
       </c>
       <c r="AZ18" s="4">
-        <f t="shared" si="35"/>
-        <v>4848.3334767894539</v>
+        <f>AY18*(1+$T$21)</f>
+        <v>3736.1718041592467</v>
       </c>
       <c r="BA18" s="4">
-        <f t="shared" si="35"/>
-        <v>4896.816811557349</v>
+        <f>AZ18*(1+$T$21)</f>
+        <v>3773.5335222008393</v>
       </c>
       <c r="BB18" s="4">
-        <f t="shared" si="35"/>
-        <v>4945.7849796729224</v>
+        <f>BA18*(1+$T$21)</f>
+        <v>3811.2688574228478</v>
       </c>
       <c r="BC18" s="4">
-        <f t="shared" si="35"/>
-        <v>4995.242829469652</v>
+        <f>BB18*(1+$T$21)</f>
+        <v>3849.381545997076</v>
       </c>
       <c r="BD18" s="4">
-        <f t="shared" si="35"/>
-        <v>5045.1952577643488</v>
+        <f>BC18*(1+$T$21)</f>
+        <v>3887.8753614570469</v>
       </c>
       <c r="BE18" s="4">
-        <f t="shared" si="35"/>
-        <v>5095.6472103419919</v>
+        <f>BD18*(1+$T$21)</f>
+        <v>3926.7541150716174</v>
       </c>
       <c r="BF18" s="4">
-        <f t="shared" si="35"/>
-        <v>5146.6036824454122</v>
+        <f>BE18*(1+$T$21)</f>
+        <v>3966.0216562223336</v>
       </c>
       <c r="BG18" s="4">
-        <f t="shared" si="35"/>
-        <v>5198.0697192698663</v>
+        <f>BF18*(1+$T$21)</f>
+        <v>4005.6818727845571</v>
       </c>
       <c r="BH18" s="4">
-        <f t="shared" si="35"/>
-        <v>5250.0504164625654</v>
+        <f>BG18*(1+$T$21)</f>
+        <v>4045.7386915124025</v>
       </c>
       <c r="BI18" s="4">
-        <f t="shared" si="35"/>
-        <v>5302.5509206271909</v>
+        <f>BH18*(1+$T$21)</f>
+        <v>4086.1960784275266</v>
       </c>
       <c r="BJ18" s="4">
-        <f t="shared" si="35"/>
-        <v>5355.5764298334625</v>
+        <f>BI18*(1+$T$21)</f>
+        <v>4127.0580392118018</v>
       </c>
       <c r="BK18" s="4">
-        <f t="shared" si="35"/>
-        <v>5409.1321941317974</v>
+        <f>BJ18*(1+$T$21)</f>
+        <v>4168.3286196039198</v>
       </c>
       <c r="BL18" s="4">
-        <f t="shared" si="35"/>
-        <v>5463.2235160731152</v>
+        <f>BK18*(1+$T$21)</f>
+        <v>4210.0119057999591</v>
       </c>
       <c r="BM18" s="4">
-        <f t="shared" si="35"/>
-        <v>5517.8557512338466</v>
+        <f>BL18*(1+$T$21)</f>
+        <v>4252.1120248579591</v>
       </c>
       <c r="BN18" s="4">
-        <f t="shared" si="35"/>
-        <v>5573.0343087461852</v>
+        <f>BM18*(1+$T$21)</f>
+        <v>4294.6331451065389</v>
       </c>
       <c r="BO18" s="4">
-        <f t="shared" si="35"/>
-        <v>5628.7646518336469</v>
+        <f>BN18*(1+$T$21)</f>
+        <v>4337.5794765576047</v>
       </c>
       <c r="BP18" s="4">
-        <f t="shared" si="35"/>
-        <v>5685.0522983519832</v>
+        <f>BO18*(1+$T$21)</f>
+        <v>4380.9552713231806</v>
       </c>
       <c r="BQ18" s="4">
-        <f t="shared" si="35"/>
-        <v>5741.9028213355032</v>
+        <f>BP18*(1+$T$21)</f>
+        <v>4424.7648240364124</v>
       </c>
       <c r="BR18" s="4">
-        <f t="shared" si="35"/>
-        <v>5799.3218495488582</v>
+        <f>BQ18*(1+$T$21)</f>
+        <v>4469.0124722767769</v>
       </c>
       <c r="BS18" s="4">
-        <f t="shared" si="35"/>
-        <v>5857.3150680443468</v>
+        <f>BR18*(1+$T$21)</f>
+        <v>4513.7025969995448</v>
       </c>
       <c r="BT18" s="4">
-        <f t="shared" si="35"/>
-        <v>5915.88821872479</v>
+        <f>BS18*(1+$T$21)</f>
+        <v>4558.83962296954</v>
       </c>
       <c r="BU18" s="4">
-        <f t="shared" si="35"/>
-        <v>5975.0471009120383</v>
+        <f>BT18*(1+$T$21)</f>
+        <v>4604.4280191992357</v>
       </c>
       <c r="BV18" s="4">
-        <f t="shared" si="35"/>
-        <v>6034.797571921159</v>
+        <f>BU18*(1+$T$21)</f>
+        <v>4650.4722993912283</v>
       </c>
       <c r="BW18" s="4">
-        <f t="shared" si="35"/>
-        <v>6095.1455476403708</v>
+        <f>BV18*(1+$T$21)</f>
+        <v>4696.977022385141</v>
       </c>
       <c r="BX18" s="4">
-        <f t="shared" si="35"/>
-        <v>6156.0970031167744</v>
+        <f>BW18*(1+$T$21)</f>
+        <v>4743.9467926089928</v>
       </c>
       <c r="BY18" s="4">
-        <f t="shared" si="35"/>
-        <v>6217.6579731479424</v>
+        <f>BX18*(1+$T$21)</f>
+        <v>4791.3862605350832</v>
       </c>
       <c r="BZ18" s="4">
-        <f t="shared" si="35"/>
-        <v>6279.8345528794216</v>
+        <f>BY18*(1+$T$21)</f>
+        <v>4839.3001231404342</v>
       </c>
       <c r="CA18" s="4">
-        <f t="shared" si="35"/>
-        <v>6342.6328984082156</v>
+        <f>BZ18*(1+$T$21)</f>
+        <v>4887.6931243718382</v>
       </c>
       <c r="CB18" s="4">
-        <f t="shared" si="35"/>
-        <v>6406.0592273922975</v>
+        <f>CA18*(1+$T$21)</f>
+        <v>4936.5700556155562</v>
       </c>
       <c r="CC18" s="4">
-        <f t="shared" si="35"/>
-        <v>6470.1198196662208</v>
+        <f>CB18*(1+$T$21)</f>
+        <v>4985.9357561717115</v>
       </c>
       <c r="CD18" s="4">
-        <f t="shared" ref="CD18:DN18" si="36">CC18*(1+$T$22)</f>
-        <v>6534.8210178628833</v>
+        <f>CC18*(1+$T$21)</f>
+        <v>5035.7951137334285</v>
       </c>
       <c r="CE18" s="4">
-        <f t="shared" si="36"/>
-        <v>6600.1692280415118</v>
+        <f>CD18*(1+$T$21)</f>
+        <v>5086.153064870763</v>
       </c>
       <c r="CF18" s="4">
-        <f t="shared" si="36"/>
-        <v>6666.170920321927</v>
+        <f>CE18*(1+$T$21)</f>
+        <v>5137.0145955194703</v>
       </c>
       <c r="CG18" s="4">
-        <f t="shared" si="36"/>
-        <v>6732.8326295251463</v>
+        <f>CF18*(1+$T$21)</f>
+        <v>5188.3847414746651</v>
       </c>
       <c r="CH18" s="4">
-        <f t="shared" si="36"/>
-        <v>6800.1609558203982</v>
+        <f>CG18*(1+$T$21)</f>
+        <v>5240.2685888894121</v>
       </c>
       <c r="CI18" s="4">
-        <f t="shared" si="36"/>
-        <v>6868.1625653786023</v>
+        <f>CH18*(1+$T$21)</f>
+        <v>5292.6712747783058</v>
       </c>
       <c r="CJ18" s="4">
-        <f t="shared" si="36"/>
-        <v>6936.8441910323882</v>
+        <f>CI18*(1+$T$21)</f>
+        <v>5345.5979875260891</v>
       </c>
       <c r="CK18" s="4">
-        <f t="shared" si="36"/>
-        <v>7006.2126329427119</v>
+        <f>CJ18*(1+$T$21)</f>
+        <v>5399.0539674013498</v>
       </c>
       <c r="CL18" s="4">
-        <f t="shared" si="36"/>
-        <v>7076.2747592721389</v>
+        <f>CK18*(1+$T$21)</f>
+        <v>5453.0445070753631</v>
       </c>
       <c r="CM18" s="4">
-        <f t="shared" si="36"/>
-        <v>7147.03750686486</v>
+        <f>CL18*(1+$T$21)</f>
+        <v>5507.5749521461166</v>
       </c>
       <c r="CN18" s="4">
-        <f t="shared" si="36"/>
-        <v>7218.5078819335085</v>
+        <f>CM18*(1+$T$21)</f>
+        <v>5562.6507016675778</v>
       </c>
       <c r="CO18" s="4">
-        <f t="shared" si="36"/>
-        <v>7290.6929607528436</v>
+        <f>CN18*(1+$T$21)</f>
+        <v>5618.2772086842533</v>
       </c>
       <c r="CP18" s="4">
-        <f t="shared" si="36"/>
-        <v>7363.5998903603722</v>
+        <f>CO18*(1+$T$21)</f>
+        <v>5674.4599807710956</v>
       </c>
       <c r="CQ18" s="4">
-        <f t="shared" si="36"/>
-        <v>7437.2358892639759</v>
+        <f>CP18*(1+$T$21)</f>
+        <v>5731.2045805788066</v>
       </c>
       <c r="CR18" s="4">
-        <f t="shared" si="36"/>
-        <v>7511.6082481566154</v>
+        <f>CQ18*(1+$T$21)</f>
+        <v>5788.5166263845949</v>
       </c>
       <c r="CS18" s="4">
-        <f t="shared" si="36"/>
-        <v>7586.7243306381815</v>
+        <f>CR18*(1+$T$21)</f>
+        <v>5846.4017926484412</v>
       </c>
       <c r="CT18" s="4">
-        <f t="shared" si="36"/>
-        <v>7662.5915739445636</v>
+        <f>CS18*(1+$T$21)</f>
+        <v>5904.8658105749255</v>
       </c>
       <c r="CU18" s="4">
-        <f t="shared" si="36"/>
-        <v>7739.2174896840097</v>
+        <f>CT18*(1+$T$21)</f>
+        <v>5963.9144686806749</v>
       </c>
       <c r="CV18" s="4">
-        <f t="shared" si="36"/>
-        <v>7816.6096645808502</v>
+        <f>CU18*(1+$T$21)</f>
+        <v>6023.5536133674814</v>
       </c>
       <c r="CW18" s="4">
-        <f t="shared" si="36"/>
-        <v>7894.7757612266587</v>
+        <f>CV18*(1+$T$21)</f>
+        <v>6083.7891495011563</v>
       </c>
       <c r="CX18" s="4">
-        <f t="shared" si="36"/>
-        <v>7973.723518838925</v>
+        <f>CW18*(1+$T$21)</f>
+        <v>6144.627040996168</v>
       </c>
       <c r="CY18" s="4">
-        <f t="shared" si="36"/>
-        <v>8053.4607540273146</v>
+        <f>CX18*(1+$T$21)</f>
+        <v>6206.0733114061295</v>
       </c>
       <c r="CZ18" s="4">
-        <f t="shared" si="36"/>
-        <v>8133.9953615675877</v>
+        <f>CY18*(1+$T$21)</f>
+        <v>6268.1340445201913</v>
       </c>
       <c r="DA18" s="4">
-        <f t="shared" si="36"/>
-        <v>8215.3353151832634</v>
+        <f>CZ18*(1+$T$21)</f>
+        <v>6330.8153849653936</v>
       </c>
       <c r="DB18" s="4">
-        <f t="shared" si="36"/>
-        <v>8297.488668335096</v>
+        <f>DA18*(1+$T$21)</f>
+        <v>6394.1235388150481</v>
       </c>
       <c r="DC18" s="4">
-        <f t="shared" si="36"/>
-        <v>8380.4635550184466</v>
+        <f>DB18*(1+$T$21)</f>
+        <v>6458.0647742031988</v>
       </c>
       <c r="DD18" s="4">
-        <f t="shared" si="36"/>
-        <v>8464.2681905686313</v>
+        <f>DC18*(1+$T$21)</f>
+        <v>6522.6454219452307</v>
       </c>
       <c r="DE18" s="4">
-        <f t="shared" si="36"/>
-        <v>8548.9108724743182</v>
+        <f>DD18*(1+$T$21)</f>
+        <v>6587.8718761646833</v>
       </c>
       <c r="DF18" s="4">
-        <f t="shared" si="36"/>
-        <v>8634.3999811990616</v>
+        <f>DE18*(1+$T$21)</f>
+        <v>6653.7505949263305</v>
       </c>
       <c r="DG18" s="4">
-        <f t="shared" si="36"/>
-        <v>8720.7439810110518</v>
+        <f>DF18*(1+$T$21)</f>
+        <v>6720.288100875594</v>
       </c>
       <c r="DH18" s="4">
-        <f t="shared" si="36"/>
-        <v>8807.9514208211622</v>
+        <f>DG18*(1+$T$21)</f>
+        <v>6787.4909818843498</v>
       </c>
       <c r="DI18" s="4">
-        <f t="shared" si="36"/>
-        <v>8896.0309350293737</v>
+        <f>DH18*(1+$T$21)</f>
+        <v>6855.3658917031935</v>
       </c>
       <c r="DJ18" s="4">
-        <f t="shared" si="36"/>
-        <v>8984.9912443796675</v>
+        <f>DI18*(1+$T$21)</f>
+        <v>6923.9195506202259</v>
       </c>
       <c r="DK18" s="4">
-        <f t="shared" si="36"/>
-        <v>9074.8411568234642</v>
+        <f>DJ18*(1+$T$21)</f>
+        <v>6993.158746126428</v>
       </c>
       <c r="DL18" s="4">
-        <f t="shared" si="36"/>
-        <v>9165.5895683916988</v>
+        <f>DK18*(1+$T$21)</f>
+        <v>7063.0903335876919</v>
       </c>
       <c r="DM18" s="4">
-        <f t="shared" si="36"/>
-        <v>9257.245464075615</v>
+        <f>DL18*(1+$T$21)</f>
+        <v>7133.7212369235685</v>
       </c>
       <c r="DN18" s="4">
-        <f t="shared" si="36"/>
-        <v>9349.8179187163714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:120" x14ac:dyDescent="0.2">
+        <f>DM18*(1+$T$21)</f>
+        <v>7205.0584492928047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J19" s="8">
         <f>J18/J20</f>
-        <v>-1.559109991603695</v>
+        <v>-1.5591099916036939</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" ref="K19:L19" si="37">K18/K20</f>
+        <f t="shared" ref="K19:L19" si="22">K18/K20</f>
         <v>-1.8797242497972426</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="37"/>
-        <v>-1.4348416988416979</v>
+        <f t="shared" si="22"/>
+        <v>-1.4348416988416985</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" ref="M19" si="38">M18/M20</f>
-        <v>-1.0897962360728084</v>
+        <f t="shared" ref="M19" si="23">M18/M20</f>
+        <v>-1.0783089244346382</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" ref="N19" si="39">N18/N20</f>
-        <v>-0.39603193381136331</v>
+        <f t="shared" ref="N19" si="24">N18/N20</f>
+        <v>-0.31637428146280328</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" ref="O19" si="40">O18/O20</f>
-        <v>0.62686854559303085</v>
+        <f t="shared" ref="O19" si="25">O18/O20</f>
+        <v>0.65160751671077621</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" ref="P19" si="41">P18/P20</f>
-        <v>2.0906185628305645</v>
+        <f t="shared" ref="P19" si="26">P18/P20</f>
+        <v>1.9016835317105718</v>
       </c>
       <c r="Q19" s="8">
-        <f t="shared" ref="Q19" si="42">Q18/Q20</f>
-        <v>4.1415044583769456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:120" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q19" si="27">Q18/Q20</f>
+        <v>3.1914826523925823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1824,32 +1833,38 @@
         <v>679.875</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" ref="N20:Q20" si="43">M20*1.05</f>
+        <f t="shared" ref="N20:Q20" si="28">M20*1.05</f>
         <v>713.86874999999998</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="28"/>
         <v>749.56218750000005</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="43"/>
+        <f>O20*1.05</f>
         <v>787.04029687500008</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="28"/>
         <v>826.39231171875008</v>
       </c>
-    </row>
-    <row r="21" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="S20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:118" x14ac:dyDescent="0.2">
       <c r="K21" s="8"/>
       <c r="S21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="T21" s="9">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:120" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:118" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
         <v>24</v>
@@ -1863,71 +1878,72 @@
         <v>0.28679622749356959</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" ref="M22:Q22" si="44">M4/L4-1</f>
+        <f>M4/L4-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="44"/>
+        <f>N4/M4-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="44"/>
+        <f>O4/N4-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" si="44"/>
+        <f>P4/O4-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="Q22" s="6">
-        <f t="shared" si="44"/>
+        <f>Q4/P4-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="T22" s="9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="23" spans="1:120" x14ac:dyDescent="0.2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:118" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J23" s="7">
         <f>J17/J16</f>
-        <v>-3.7839883236931711E-3</v>
+        <v>-3.7839883236931737E-3</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" ref="K23:L23" si="45">K17/K16</f>
+        <f t="shared" ref="K23:L23" si="29">K17/K16</f>
         <v>-3.4528896370149769E-4</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="45"/>
-        <v>-4.4326241134751802E-3</v>
+        <f t="shared" si="29"/>
+        <v>-4.4326241134751776E-3</v>
       </c>
       <c r="M23" s="7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="P23" s="7">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="Q23" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="S23" s="2" t="s">
+        <v>0.19</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="T23" s="9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:120" ht="15" x14ac:dyDescent="0.25">
+      <c r="T23" s="4">
+        <f>NPV(T22,M33:XFD33)+main!D5-main!D6</f>
+        <v>34484.24451130275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:118" x14ac:dyDescent="0.2">
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -1936,630 +1952,668 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="S24" s="4" t="s">
+      <c r="S24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" s="2">
+        <f>T23/main!D3</f>
+        <v>50.840496535078643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="S25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T24" s="4">
-        <f>NPV(T23,M32:XFD32)+main!D5-main!D6</f>
-        <v>32238.659537884439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="S25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T25" s="2">
-        <f>T24/main!D3</f>
-        <v>47.529806198717111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:120" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="T25" s="7">
+        <f>T24/main!D2-1</f>
+        <v>-0.37233954894964638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:118" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="6">
-        <f>J6/J4</f>
+      <c r="B26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11">
+        <f>(J4-J5)/J4</f>
         <v>0.75386516853932584</v>
       </c>
-      <c r="K26" s="6">
-        <f t="shared" ref="K26:L26" si="46">K6/K4</f>
+      <c r="K26" s="11">
+        <f t="shared" ref="K26:L26" si="30">(K4-K5)/K4</f>
         <v>0.76811231780508715</v>
       </c>
-      <c r="L26" s="6">
-        <f t="shared" si="46"/>
+      <c r="L26" s="11">
+        <f t="shared" si="30"/>
         <v>0.77757912270960583</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="11">
         <f>L26*1.01</f>
         <v>0.78535491393670187</v>
       </c>
-      <c r="N26" s="6">
-        <f t="shared" ref="N26:Q26" si="47">M26*1.01</f>
+      <c r="N26" s="11">
+        <f t="shared" ref="N26:Q26" si="31">M26*1.01</f>
         <v>0.79320846307606885</v>
       </c>
-      <c r="O26" s="6">
-        <f t="shared" si="47"/>
+      <c r="O26" s="11">
+        <f t="shared" si="31"/>
         <v>0.80114054770682952</v>
       </c>
-      <c r="P26" s="6">
-        <f t="shared" si="47"/>
+      <c r="P26" s="11">
+        <f>O26*1.01</f>
         <v>0.80915195318389788</v>
       </c>
-      <c r="Q26" s="6">
-        <f t="shared" si="47"/>
+      <c r="Q26" s="11">
+        <f t="shared" si="31"/>
         <v>0.81724347271573683</v>
       </c>
-      <c r="S26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T26" s="7">
-        <f>T25/main!D2-1</f>
-        <v>-0.41321226915164055</v>
-      </c>
-    </row>
-    <row r="27" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="7">
+    </row>
+    <row r="27" spans="1:118" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="6">
+        <f>J7/J4</f>
+        <v>0.47350561797752816</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" ref="K27:Q27" si="32">K7/K4</f>
+        <v>0.50348313803943989</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="32"/>
+        <v>0.52138811771238203</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="32"/>
+        <v>0.52535491393670186</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="32"/>
+        <v>0.53320846307606884</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="32"/>
+        <v>0.54114054770682951</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="32"/>
+        <v>0.54915195318389798</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" si="32"/>
+        <v>0.55724347271573682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="7">
         <f>J13/J4</f>
-        <v>-0.4152134831460676</v>
-      </c>
-      <c r="K27" s="7">
+        <v>-0.41521348314606726</v>
+      </c>
+      <c r="K28" s="7">
         <f>K13/K4</f>
         <v>-0.44986067447842243</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L28" s="7">
         <f>L13/L4</f>
-        <v>-0.29518600777345899</v>
-      </c>
-      <c r="M27" s="7">
-        <f t="shared" ref="M27:Q27" si="48">M13/M4</f>
-        <v>-0.15897793533507038</v>
-      </c>
-      <c r="N27" s="7">
-        <f t="shared" si="48"/>
-        <v>-3.5753942753697081E-2</v>
-      </c>
-      <c r="O27" s="7">
-        <f t="shared" si="48"/>
-        <v>7.4746938848452391E-2</v>
-      </c>
-      <c r="P27" s="7">
-        <f t="shared" si="48"/>
-        <v>0.1750364960684388</v>
-      </c>
-      <c r="Q27" s="7">
-        <f t="shared" si="48"/>
-        <v>0.26713319264317886</v>
-      </c>
-    </row>
-    <row r="28" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
+        <v>-0.2951860077734591</v>
+      </c>
+      <c r="M28" s="7">
+        <f>M13/M4</f>
+        <v>-0.14898220646649288</v>
+      </c>
+      <c r="N28" s="7">
+        <f>N13/N4</f>
+        <v>-2.4045089355354769E-2</v>
+      </c>
+      <c r="O28" s="7">
+        <f>O13/O4</f>
+        <v>8.0332448643369886E-2</v>
+      </c>
+      <c r="P28" s="7">
+        <f>P13/P4</f>
+        <v>0.16784415275096809</v>
+      </c>
+      <c r="Q28" s="7">
+        <f>Q13/Q4</f>
+        <v>0.2415132443804236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="7">
+        <f>J12/J4</f>
+        <v>0.88871910112359542</v>
+      </c>
+      <c r="K29" s="7">
+        <f>K12/K4</f>
+        <v>0.95334381251786227</v>
+      </c>
+      <c r="L29" s="7">
+        <f>L12/L4</f>
+        <v>0.81657412548584107</v>
+      </c>
+      <c r="M29" s="7">
+        <f>M12/M4</f>
+        <v>0.67433712040319471</v>
+      </c>
+      <c r="N29" s="7">
+        <f>N12/N4</f>
+        <v>0.5572535524314236</v>
+      </c>
+      <c r="O29" s="7">
+        <f>O12/O4</f>
+        <v>0.46080809906345965</v>
+      </c>
+      <c r="P29" s="7">
+        <f>P12/P4</f>
+        <v>0.38130780043292983</v>
+      </c>
+      <c r="Q29" s="7">
+        <f>Q12/Q4</f>
+        <v>0.31573022833531322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="7">
-        <f>J12/J4</f>
-        <v>1.1690786516853935</v>
-      </c>
-      <c r="K28" s="7">
-        <f t="shared" ref="K28:Q28" si="49">K12/K4</f>
-        <v>1.2179729922835096</v>
-      </c>
-      <c r="L28" s="7">
-        <f t="shared" si="49"/>
-        <v>1.0727651304830648</v>
-      </c>
-      <c r="M28" s="7">
-        <f t="shared" si="49"/>
-        <v>0.94433284927177219</v>
-      </c>
-      <c r="N28" s="7">
-        <f t="shared" si="49"/>
-        <v>0.82896240582976588</v>
-      </c>
-      <c r="O28" s="7">
-        <f t="shared" si="49"/>
-        <v>0.72639360885837712</v>
-      </c>
-      <c r="P28" s="7">
-        <f t="shared" si="49"/>
-        <v>0.63411545711545902</v>
-      </c>
-      <c r="Q28" s="7">
-        <f t="shared" si="49"/>
-        <v>0.55011028007255802</v>
-      </c>
-    </row>
-    <row r="30" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="32" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:120" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+    <row r="33" spans="1:120" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:120" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4" t="s">
+      <c r="M33" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1200</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1500</v>
+      </c>
+      <c r="P33" s="4">
+        <f>P18*1.2</f>
+        <v>1796.0418856317444</v>
+      </c>
+      <c r="Q33" s="4">
+        <f>Q18*1.2</f>
+        <v>3164.9000723051931</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" ref="R33:CC33" si="33">R18*1.1</f>
+        <v>2930.1699836092248</v>
+      </c>
+      <c r="S33" s="4">
+        <f t="shared" si="33"/>
+        <v>2959.471683445317</v>
+      </c>
+      <c r="T33" s="4">
+        <f t="shared" si="33"/>
+        <v>2989.0664002797698</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="33"/>
+        <v>3018.9570642825679</v>
+      </c>
+      <c r="V33" s="4">
+        <f t="shared" si="33"/>
+        <v>3049.1466349253938</v>
+      </c>
+      <c r="W33" s="4">
+        <f t="shared" si="33"/>
+        <v>3079.6381012746474</v>
+      </c>
+      <c r="X33" s="4">
+        <f t="shared" si="33"/>
+        <v>3110.4344822873941</v>
+      </c>
+      <c r="Y33" s="4">
+        <f t="shared" si="33"/>
+        <v>3141.5388271102679</v>
+      </c>
+      <c r="Z33" s="4">
+        <f t="shared" si="33"/>
+        <v>3172.9542153813704</v>
+      </c>
+      <c r="AA33" s="4">
+        <f t="shared" si="33"/>
+        <v>3204.6837575351842</v>
+      </c>
+      <c r="AB33" s="4">
+        <f t="shared" si="33"/>
+        <v>3236.7305951105359</v>
+      </c>
+      <c r="AC33" s="4">
+        <f t="shared" si="33"/>
+        <v>3269.0979010616411</v>
+      </c>
+      <c r="AD33" s="4">
+        <f t="shared" si="33"/>
+        <v>3301.7888800722576</v>
+      </c>
+      <c r="AE33" s="4">
+        <f t="shared" si="33"/>
+        <v>3334.8067688729802</v>
+      </c>
+      <c r="AF33" s="4">
+        <f t="shared" si="33"/>
+        <v>3368.15483656171</v>
+      </c>
+      <c r="AG33" s="4">
+        <f t="shared" si="33"/>
+        <v>3401.8363849273273</v>
+      </c>
+      <c r="AH33" s="4">
+        <f t="shared" si="33"/>
+        <v>3435.8547487766009</v>
+      </c>
+      <c r="AI33" s="4">
+        <f t="shared" si="33"/>
+        <v>3470.2132962643668</v>
+      </c>
+      <c r="AJ33" s="4">
+        <f t="shared" si="33"/>
+        <v>3504.91542922701</v>
+      </c>
+      <c r="AK33" s="4">
+        <f t="shared" si="33"/>
+        <v>3539.9645835192805</v>
+      </c>
+      <c r="AL33" s="4">
+        <f t="shared" si="33"/>
+        <v>3575.3642293544731</v>
+      </c>
+      <c r="AM33" s="4">
+        <f t="shared" si="33"/>
+        <v>3611.1178716480181</v>
+      </c>
+      <c r="AN33" s="4">
+        <f t="shared" si="33"/>
+        <v>3647.2290503644981</v>
+      </c>
+      <c r="AO33" s="4">
+        <f t="shared" si="33"/>
+        <v>3683.7013408681432</v>
+      </c>
+      <c r="AP33" s="4">
+        <f t="shared" si="33"/>
+        <v>3720.5383542768245</v>
+      </c>
+      <c r="AQ33" s="4">
+        <f t="shared" si="33"/>
+        <v>3757.7437378195928</v>
+      </c>
+      <c r="AR33" s="4">
+        <f t="shared" si="33"/>
+        <v>3795.3211751977888</v>
+      </c>
+      <c r="AS33" s="4">
+        <f t="shared" si="33"/>
+        <v>3833.2743869497663</v>
+      </c>
+      <c r="AT33" s="4">
+        <f t="shared" si="33"/>
+        <v>3871.6071308192645</v>
+      </c>
+      <c r="AU33" s="4">
+        <f t="shared" si="33"/>
+        <v>3910.3232021274571</v>
+      </c>
+      <c r="AV33" s="4">
+        <f t="shared" si="33"/>
+        <v>3949.4264341487319</v>
+      </c>
+      <c r="AW33" s="4">
+        <f t="shared" si="33"/>
+        <v>3988.9206984902194</v>
+      </c>
+      <c r="AX33" s="4">
+        <f t="shared" si="33"/>
+        <v>4028.8099054751215</v>
+      </c>
+      <c r="AY33" s="4">
+        <f t="shared" si="33"/>
+        <v>4069.0980045298729</v>
+      </c>
+      <c r="AZ33" s="4">
+        <f t="shared" si="33"/>
+        <v>4109.7889845751715</v>
+      </c>
+      <c r="BA33" s="4">
+        <f t="shared" si="33"/>
+        <v>4150.886874420924</v>
+      </c>
+      <c r="BB33" s="4">
+        <f t="shared" si="33"/>
+        <v>4192.3957431651324</v>
+      </c>
+      <c r="BC33" s="4">
+        <f t="shared" si="33"/>
+        <v>4234.3197005967841</v>
+      </c>
+      <c r="BD33" s="4">
+        <f t="shared" si="33"/>
+        <v>4276.6628976027523</v>
+      </c>
+      <c r="BE33" s="4">
+        <f t="shared" si="33"/>
+        <v>4319.4295265787796</v>
+      </c>
+      <c r="BF33" s="4">
+        <f t="shared" si="33"/>
+        <v>4362.6238218445669</v>
+      </c>
+      <c r="BG33" s="4">
+        <f t="shared" si="33"/>
+        <v>4406.2500600630128</v>
+      </c>
+      <c r="BH33" s="4">
+        <f t="shared" si="33"/>
+        <v>4450.3125606636431</v>
+      </c>
+      <c r="BI33" s="4">
+        <f t="shared" si="33"/>
+        <v>4494.8156862702799</v>
+      </c>
+      <c r="BJ33" s="4">
+        <f t="shared" si="33"/>
+        <v>4539.7638431329824</v>
+      </c>
+      <c r="BK33" s="4">
+        <f t="shared" si="33"/>
+        <v>4585.1614815643125</v>
+      </c>
+      <c r="BL33" s="4">
+        <f t="shared" si="33"/>
+        <v>4631.0130963799556</v>
+      </c>
+      <c r="BM33" s="4">
+        <f t="shared" si="33"/>
+        <v>4677.3232273437552</v>
+      </c>
+      <c r="BN33" s="4">
+        <f t="shared" si="33"/>
+        <v>4724.0964596171934</v>
+      </c>
+      <c r="BO33" s="4">
+        <f t="shared" si="33"/>
+        <v>4771.3374242133659</v>
+      </c>
+      <c r="BP33" s="4">
+        <f t="shared" si="33"/>
+        <v>4819.0507984554988</v>
+      </c>
+      <c r="BQ33" s="4">
+        <f t="shared" si="33"/>
+        <v>4867.2413064400544</v>
+      </c>
+      <c r="BR33" s="4">
+        <f t="shared" si="33"/>
+        <v>4915.913719504455</v>
+      </c>
+      <c r="BS33" s="4">
+        <f t="shared" si="33"/>
+        <v>4965.0728566994994</v>
+      </c>
+      <c r="BT33" s="4">
+        <f t="shared" si="33"/>
+        <v>5014.7235852664944</v>
+      </c>
+      <c r="BU33" s="4">
+        <f t="shared" si="33"/>
+        <v>5064.8708211191597</v>
+      </c>
+      <c r="BV33" s="4">
+        <f t="shared" si="33"/>
+        <v>5115.5195293303514</v>
+      </c>
+      <c r="BW33" s="4">
+        <f t="shared" si="33"/>
+        <v>5166.6747246236555</v>
+      </c>
+      <c r="BX33" s="4">
+        <f t="shared" si="33"/>
+        <v>5218.3414718698923</v>
+      </c>
+      <c r="BY33" s="4">
+        <f t="shared" si="33"/>
+        <v>5270.5248865885924</v>
+      </c>
+      <c r="BZ33" s="4">
+        <f t="shared" si="33"/>
+        <v>5323.2301354544779</v>
+      </c>
+      <c r="CA33" s="4">
+        <f t="shared" si="33"/>
+        <v>5376.4624368090226</v>
+      </c>
+      <c r="CB33" s="4">
+        <f t="shared" si="33"/>
+        <v>5430.2270611771119</v>
+      </c>
+      <c r="CC33" s="4">
+        <f t="shared" si="33"/>
+        <v>5484.5293317888827</v>
+      </c>
+      <c r="CD33" s="4">
+        <f t="shared" ref="CD33:DP33" si="34">CD18*1.1</f>
+        <v>5539.3746251067714</v>
+      </c>
+      <c r="CE33" s="4">
+        <f t="shared" si="34"/>
+        <v>5594.7683713578399</v>
+      </c>
+      <c r="CF33" s="4">
+        <f t="shared" si="34"/>
+        <v>5650.7160550714179</v>
+      </c>
+      <c r="CG33" s="4">
+        <f t="shared" si="34"/>
+        <v>5707.2232156221326</v>
+      </c>
+      <c r="CH33" s="4">
+        <f t="shared" si="34"/>
+        <v>5764.2954477783542</v>
+      </c>
+      <c r="CI33" s="4">
+        <f t="shared" si="34"/>
+        <v>5821.9384022561371</v>
+      </c>
+      <c r="CJ33" s="4">
+        <f t="shared" si="34"/>
+        <v>5880.1577862786989</v>
+      </c>
+      <c r="CK33" s="4">
+        <f t="shared" si="34"/>
+        <v>5938.9593641414849</v>
+      </c>
+      <c r="CL33" s="4">
+        <f t="shared" si="34"/>
+        <v>5998.3489577828996</v>
+      </c>
+      <c r="CM33" s="4">
+        <f t="shared" si="34"/>
+        <v>6058.332447360729</v>
+      </c>
+      <c r="CN33" s="4">
+        <f t="shared" si="34"/>
+        <v>6118.9157718343358</v>
+      </c>
+      <c r="CO33" s="4">
+        <f t="shared" si="34"/>
+        <v>6180.1049295526791</v>
+      </c>
+      <c r="CP33" s="4">
+        <f t="shared" si="34"/>
+        <v>6241.9059788482055</v>
+      </c>
+      <c r="CQ33" s="4">
+        <f t="shared" si="34"/>
+        <v>6304.3250386366881</v>
+      </c>
+      <c r="CR33" s="4">
+        <f t="shared" si="34"/>
+        <v>6367.3682890230548</v>
+      </c>
+      <c r="CS33" s="4">
+        <f t="shared" si="34"/>
+        <v>6431.041971913286</v>
+      </c>
+      <c r="CT33" s="4">
+        <f t="shared" si="34"/>
+        <v>6495.3523916324184</v>
+      </c>
+      <c r="CU33" s="4">
+        <f t="shared" si="34"/>
+        <v>6560.3059155487426</v>
+      </c>
+      <c r="CV33" s="4">
+        <f t="shared" si="34"/>
+        <v>6625.9089747042299</v>
+      </c>
+      <c r="CW33" s="4">
+        <f t="shared" si="34"/>
+        <v>6692.1680644512726</v>
+      </c>
+      <c r="CX33" s="4">
+        <f t="shared" si="34"/>
+        <v>6759.0897450957855</v>
+      </c>
+      <c r="CY33" s="4">
+        <f t="shared" si="34"/>
+        <v>6826.680642546743</v>
+      </c>
+      <c r="CZ33" s="4">
+        <f t="shared" si="34"/>
+        <v>6894.9474489722106</v>
+      </c>
+      <c r="DA33" s="4">
+        <f t="shared" si="34"/>
+        <v>6963.8969234619335</v>
+      </c>
+      <c r="DB33" s="4">
+        <f t="shared" si="34"/>
+        <v>7033.5358926965537</v>
+      </c>
+      <c r="DC33" s="4">
+        <f t="shared" si="34"/>
+        <v>7103.8712516235191</v>
+      </c>
+      <c r="DD33" s="4">
+        <f t="shared" si="34"/>
+        <v>7174.9099641397543</v>
+      </c>
+      <c r="DE33" s="4">
+        <f t="shared" si="34"/>
+        <v>7246.6590637811523</v>
+      </c>
+      <c r="DF33" s="4">
+        <f t="shared" si="34"/>
+        <v>7319.1256544189637</v>
+      </c>
+      <c r="DG33" s="4">
+        <f t="shared" si="34"/>
+        <v>7392.3169109631535</v>
+      </c>
+      <c r="DH33" s="4">
+        <f t="shared" si="34"/>
+        <v>7466.2400800727855</v>
+      </c>
+      <c r="DI33" s="4">
+        <f t="shared" si="34"/>
+        <v>7540.902480873513</v>
+      </c>
+      <c r="DJ33" s="4">
+        <f t="shared" si="34"/>
+        <v>7616.3115056822489</v>
+      </c>
+      <c r="DK33" s="4">
+        <f t="shared" si="34"/>
+        <v>7692.4746207390717</v>
+      </c>
+      <c r="DL33" s="4">
+        <f t="shared" si="34"/>
+        <v>7769.3993669464617</v>
+      </c>
+      <c r="DM33" s="4">
+        <f t="shared" si="34"/>
+        <v>7847.093360615926</v>
+      </c>
+      <c r="DN33" s="4">
+        <f t="shared" si="34"/>
+        <v>7925.5642942220857</v>
+      </c>
+      <c r="DO33" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="DP33" s="4">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M32" s="4">
-        <v>1000</v>
-      </c>
-      <c r="N32" s="4">
-        <v>1200</v>
-      </c>
-      <c r="O32" s="4">
-        <v>1500</v>
-      </c>
-      <c r="P32" s="4">
-        <f>P18*1.1</f>
-        <v>1809.9411597768089</v>
-      </c>
-      <c r="Q32" s="4">
-        <f>Q18*1.1</f>
-        <v>3764.7581876867976</v>
-      </c>
-      <c r="R32" s="4">
-        <f t="shared" ref="R32:CC32" si="50">R18*1.1</f>
-        <v>3802.4057695636657</v>
-      </c>
-      <c r="S32" s="4">
-        <f t="shared" si="50"/>
-        <v>3840.4298272593023</v>
-      </c>
-      <c r="T32" s="4">
-        <f t="shared" si="50"/>
-        <v>3878.8341255318956</v>
-      </c>
-      <c r="U32" s="4">
-        <f t="shared" si="50"/>
-        <v>3917.6224667872148</v>
-      </c>
-      <c r="V32" s="4">
-        <f t="shared" si="50"/>
-        <v>3956.798691455087</v>
-      </c>
-      <c r="W32" s="4">
-        <f t="shared" si="50"/>
-        <v>3996.3666783696376</v>
-      </c>
-      <c r="X32" s="4">
-        <f t="shared" si="50"/>
-        <v>4036.3303451533343</v>
-      </c>
-      <c r="Y32" s="4">
-        <f t="shared" si="50"/>
-        <v>4076.6936486048676</v>
-      </c>
-      <c r="Z32" s="4">
-        <f t="shared" si="50"/>
-        <v>4117.4605850909165</v>
-      </c>
-      <c r="AA32" s="4">
-        <f t="shared" si="50"/>
-        <v>4158.6351909418254</v>
-      </c>
-      <c r="AB32" s="4">
-        <f t="shared" si="50"/>
-        <v>4200.2215428512436</v>
-      </c>
-      <c r="AC32" s="4">
-        <f t="shared" si="50"/>
-        <v>4242.2237582797561</v>
-      </c>
-      <c r="AD32" s="4">
-        <f t="shared" si="50"/>
-        <v>4284.6459958625537</v>
-      </c>
-      <c r="AE32" s="4">
-        <f t="shared" si="50"/>
-        <v>4327.4924558211796</v>
-      </c>
-      <c r="AF32" s="4">
-        <f t="shared" si="50"/>
-        <v>4370.7673803793914</v>
-      </c>
-      <c r="AG32" s="4">
-        <f t="shared" si="50"/>
-        <v>4414.4750541831845</v>
-      </c>
-      <c r="AH32" s="4">
-        <f t="shared" si="50"/>
-        <v>4458.6198047250173</v>
-      </c>
-      <c r="AI32" s="4">
-        <f t="shared" si="50"/>
-        <v>4503.2060027722673</v>
-      </c>
-      <c r="AJ32" s="4">
-        <f t="shared" si="50"/>
-        <v>4548.2380627999901</v>
-      </c>
-      <c r="AK32" s="4">
-        <f t="shared" si="50"/>
-        <v>4593.7204434279902</v>
-      </c>
-      <c r="AL32" s="4">
-        <f t="shared" si="50"/>
-        <v>4639.6576478622701</v>
-      </c>
-      <c r="AM32" s="4">
-        <f t="shared" si="50"/>
-        <v>4686.0542243408927</v>
-      </c>
-      <c r="AN32" s="4">
-        <f t="shared" si="50"/>
-        <v>4732.9147665843011</v>
-      </c>
-      <c r="AO32" s="4">
-        <f t="shared" si="50"/>
-        <v>4780.2439142501444</v>
-      </c>
-      <c r="AP32" s="4">
-        <f t="shared" si="50"/>
-        <v>4828.046353392645</v>
-      </c>
-      <c r="AQ32" s="4">
-        <f t="shared" si="50"/>
-        <v>4876.3268169265721</v>
-      </c>
-      <c r="AR32" s="4">
-        <f t="shared" si="50"/>
-        <v>4925.0900850958369</v>
-      </c>
-      <c r="AS32" s="4">
-        <f t="shared" si="50"/>
-        <v>4974.3409859467956</v>
-      </c>
-      <c r="AT32" s="4">
-        <f t="shared" si="50"/>
-        <v>5024.0843958062642</v>
-      </c>
-      <c r="AU32" s="4">
-        <f t="shared" si="50"/>
-        <v>5074.3252397643264</v>
-      </c>
-      <c r="AV32" s="4">
-        <f t="shared" si="50"/>
-        <v>5125.0684921619695</v>
-      </c>
-      <c r="AW32" s="4">
-        <f t="shared" si="50"/>
-        <v>5176.3191770835892</v>
-      </c>
-      <c r="AX32" s="4">
-        <f t="shared" si="50"/>
-        <v>5228.0823688544251</v>
-      </c>
-      <c r="AY32" s="4">
-        <f t="shared" si="50"/>
-        <v>5280.36319254297</v>
-      </c>
-      <c r="AZ32" s="4">
-        <f t="shared" si="50"/>
-        <v>5333.1668244683997</v>
-      </c>
-      <c r="BA32" s="4">
-        <f t="shared" si="50"/>
-        <v>5386.4984927130845</v>
-      </c>
-      <c r="BB32" s="4">
-        <f t="shared" si="50"/>
-        <v>5440.363477640215</v>
-      </c>
-      <c r="BC32" s="4">
-        <f t="shared" si="50"/>
-        <v>5494.7671124166172</v>
-      </c>
-      <c r="BD32" s="4">
-        <f t="shared" si="50"/>
-        <v>5549.7147835407841</v>
-      </c>
-      <c r="BE32" s="4">
-        <f t="shared" si="50"/>
-        <v>5605.2119313761914</v>
-      </c>
-      <c r="BF32" s="4">
-        <f t="shared" si="50"/>
-        <v>5661.2640506899543</v>
-      </c>
-      <c r="BG32" s="4">
-        <f t="shared" si="50"/>
-        <v>5717.8766911968532</v>
-      </c>
-      <c r="BH32" s="4">
-        <f t="shared" si="50"/>
-        <v>5775.0554581088227</v>
-      </c>
-      <c r="BI32" s="4">
-        <f t="shared" si="50"/>
-        <v>5832.8060126899109</v>
-      </c>
-      <c r="BJ32" s="4">
-        <f t="shared" si="50"/>
-        <v>5891.1340728168088</v>
-      </c>
-      <c r="BK32" s="4">
-        <f t="shared" si="50"/>
-        <v>5950.0454135449772</v>
-      </c>
-      <c r="BL32" s="4">
-        <f t="shared" si="50"/>
-        <v>6009.5458676804274</v>
-      </c>
-      <c r="BM32" s="4">
-        <f t="shared" si="50"/>
-        <v>6069.6413263572322</v>
-      </c>
-      <c r="BN32" s="4">
-        <f t="shared" si="50"/>
-        <v>6130.3377396208043</v>
-      </c>
-      <c r="BO32" s="4">
-        <f t="shared" si="50"/>
-        <v>6191.6411170170122</v>
-      </c>
-      <c r="BP32" s="4">
-        <f t="shared" si="50"/>
-        <v>6253.5575281871816</v>
-      </c>
-      <c r="BQ32" s="4">
-        <f t="shared" si="50"/>
-        <v>6316.0931034690539</v>
-      </c>
-      <c r="BR32" s="4">
-        <f t="shared" si="50"/>
-        <v>6379.2540345037442</v>
-      </c>
-      <c r="BS32" s="4">
-        <f t="shared" si="50"/>
-        <v>6443.0465748487823</v>
-      </c>
-      <c r="BT32" s="4">
-        <f t="shared" si="50"/>
-        <v>6507.4770405972695</v>
-      </c>
-      <c r="BU32" s="4">
-        <f t="shared" si="50"/>
-        <v>6572.5518110032426</v>
-      </c>
-      <c r="BV32" s="4">
-        <f t="shared" si="50"/>
-        <v>6638.2773291132753</v>
-      </c>
-      <c r="BW32" s="4">
-        <f t="shared" si="50"/>
-        <v>6704.6601024044085</v>
-      </c>
-      <c r="BX32" s="4">
-        <f t="shared" si="50"/>
-        <v>6771.7067034284528</v>
-      </c>
-      <c r="BY32" s="4">
-        <f t="shared" si="50"/>
-        <v>6839.4237704627376</v>
-      </c>
-      <c r="BZ32" s="4">
-        <f t="shared" si="50"/>
-        <v>6907.8180081673645</v>
-      </c>
-      <c r="CA32" s="4">
-        <f t="shared" si="50"/>
-        <v>6976.8961882490376</v>
-      </c>
-      <c r="CB32" s="4">
-        <f t="shared" si="50"/>
-        <v>7046.6651501315282</v>
-      </c>
-      <c r="CC32" s="4">
-        <f t="shared" si="50"/>
-        <v>7117.1318016328432</v>
-      </c>
-      <c r="CD32" s="4">
-        <f t="shared" ref="CD32:DP32" si="51">CD18*1.1</f>
-        <v>7188.303119649172</v>
-      </c>
-      <c r="CE32" s="4">
-        <f t="shared" si="51"/>
-        <v>7260.1861508456632</v>
-      </c>
-      <c r="CF32" s="4">
-        <f t="shared" si="51"/>
-        <v>7332.7880123541199</v>
-      </c>
-      <c r="CG32" s="4">
-        <f t="shared" si="51"/>
-        <v>7406.1158924776619</v>
-      </c>
-      <c r="CH32" s="4">
-        <f t="shared" si="51"/>
-        <v>7480.1770514024383</v>
-      </c>
-      <c r="CI32" s="4">
-        <f t="shared" si="51"/>
-        <v>7554.9788219164629</v>
-      </c>
-      <c r="CJ32" s="4">
-        <f t="shared" si="51"/>
-        <v>7630.5286101356278</v>
-      </c>
-      <c r="CK32" s="4">
-        <f t="shared" si="51"/>
-        <v>7706.8338962369835</v>
-      </c>
-      <c r="CL32" s="4">
-        <f t="shared" si="51"/>
-        <v>7783.9022351993535</v>
-      </c>
-      <c r="CM32" s="4">
-        <f t="shared" si="51"/>
-        <v>7861.7412575513463</v>
-      </c>
-      <c r="CN32" s="4">
-        <f t="shared" si="51"/>
-        <v>7940.3586701268605</v>
-      </c>
-      <c r="CO32" s="4">
-        <f t="shared" si="51"/>
-        <v>8019.7622568281286</v>
-      </c>
-      <c r="CP32" s="4">
-        <f t="shared" si="51"/>
-        <v>8099.9598793964105</v>
-      </c>
-      <c r="CQ32" s="4">
-        <f t="shared" si="51"/>
-        <v>8180.9594781903743</v>
-      </c>
-      <c r="CR32" s="4">
-        <f t="shared" si="51"/>
-        <v>8262.7690729722781</v>
-      </c>
-      <c r="CS32" s="4">
-        <f t="shared" si="51"/>
-        <v>8345.3967637019996</v>
-      </c>
-      <c r="CT32" s="4">
-        <f t="shared" si="51"/>
-        <v>8428.8507313390201</v>
-      </c>
-      <c r="CU32" s="4">
-        <f t="shared" si="51"/>
-        <v>8513.1392386524112</v>
-      </c>
-      <c r="CV32" s="4">
-        <f t="shared" si="51"/>
-        <v>8598.2706310389367</v>
-      </c>
-      <c r="CW32" s="4">
-        <f t="shared" si="51"/>
-        <v>8684.2533373493261</v>
-      </c>
-      <c r="CX32" s="4">
-        <f t="shared" si="51"/>
-        <v>8771.0958707228183</v>
-      </c>
-      <c r="CY32" s="4">
-        <f t="shared" si="51"/>
-        <v>8858.8068294300465</v>
-      </c>
-      <c r="CZ32" s="4">
-        <f t="shared" si="51"/>
-        <v>8947.3948977243472</v>
-      </c>
-      <c r="DA32" s="4">
-        <f t="shared" si="51"/>
-        <v>9036.8688467015909</v>
-      </c>
-      <c r="DB32" s="4">
-        <f t="shared" si="51"/>
-        <v>9127.237535168606</v>
-      </c>
-      <c r="DC32" s="4">
-        <f t="shared" si="51"/>
-        <v>9218.5099105202917</v>
-      </c>
-      <c r="DD32" s="4">
-        <f t="shared" si="51"/>
-        <v>9310.695009625495</v>
-      </c>
-      <c r="DE32" s="4">
-        <f t="shared" si="51"/>
-        <v>9403.8019597217517</v>
-      </c>
-      <c r="DF32" s="4">
-        <f t="shared" si="51"/>
-        <v>9497.8399793189692</v>
-      </c>
-      <c r="DG32" s="4">
-        <f t="shared" si="51"/>
-        <v>9592.8183791121573</v>
-      </c>
-      <c r="DH32" s="4">
-        <f t="shared" si="51"/>
-        <v>9688.7465629032795</v>
-      </c>
-      <c r="DI32" s="4">
-        <f t="shared" si="51"/>
-        <v>9785.6340285323113</v>
-      </c>
-      <c r="DJ32" s="4">
-        <f t="shared" si="51"/>
-        <v>9883.4903688176346</v>
-      </c>
-      <c r="DK32" s="4">
-        <f t="shared" si="51"/>
-        <v>9982.3252725058119</v>
-      </c>
-      <c r="DL32" s="4">
-        <f t="shared" si="51"/>
-        <v>10082.14852523087</v>
-      </c>
-      <c r="DM32" s="4">
-        <f t="shared" si="51"/>
-        <v>10182.970010483177</v>
-      </c>
-      <c r="DN32" s="4">
-        <f t="shared" si="51"/>
-        <v>10284.799710588009</v>
-      </c>
-      <c r="DO32" s="4">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="DP32" s="4">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" s="2">
-        <f>L35-L36</f>
+      <c r="L35" s="2">
+        <f>L36-L37</f>
         <v>-591.52000000000044</v>
       </c>
-      <c r="M34" s="2">
-        <f>L34+M18</f>
-        <v>-1332.445216000001</v>
-      </c>
-      <c r="N34" s="2">
-        <f t="shared" ref="N34:Q34" si="52">M34+N18</f>
-        <v>-1615.1600375500016</v>
-      </c>
-      <c r="O34" s="2">
-        <f t="shared" si="52"/>
-        <v>-1145.2830792403458</v>
-      </c>
-      <c r="P34" s="2">
-        <f t="shared" si="52"/>
-        <v>500.11797510220754</v>
-      </c>
-      <c r="Q34" s="2">
-        <f t="shared" si="52"/>
-        <v>3922.6254184538411</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+      <c r="M35" s="2">
+        <f>L35+M18</f>
+        <v>-1324.63528</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" ref="N35:Q35" si="35">M35+N18</f>
+        <v>-1550.4849928399994</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="35"/>
+        <v>-1062.0646372228271</v>
+      </c>
+      <c r="P35" s="2">
+        <f>O35+P18</f>
+        <v>434.63693413696001</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="35"/>
+        <v>3072.0536610579543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L36" s="2">
         <f>1158.68+1585.85</f>
         <v>2744.5299999999997</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="1:120" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L37" s="2">
         <f>1006.7+56.15+667+1606.2</f>
         <v>3336.05</v>
       </c>

--- a/RBLX.xlsx
+++ b/RBLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE573E6F-0CAA-412C-8191-A3AF24B07AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B9CE1E-BC0A-4B3C-8AE6-0C5194C769AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="525" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{D545362F-A2DB-409B-B278-689260F0007A}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" xr2:uid="{D545362F-A2DB-409B-B278-689260F0007A}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>RBLX</t>
   </si>
@@ -221,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -232,8 +232,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -355,10 +353,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -678,28 +672,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B938537A-CAB1-4105-ABA0-9FB819746A55}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="8">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -707,8 +701,11 @@
         <f>629.99+48.293</f>
         <v>678.28300000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -717,7 +714,7 @@
         <v>54940.923000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -725,8 +722,11 @@
         <f>1158.68+1585.85</f>
         <v>2744.5299999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -734,8 +734,11 @@
         <f>1006.7+56.15+667+1606.2</f>
         <v>3336.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -753,11 +756,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5B609E-4374-4BEC-B6D4-612C377C6303}">
   <dimension ref="A1:DP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1231,23 +1234,23 @@
       </c>
       <c r="M14" s="2">
         <f>L35*$T$20</f>
-        <v>-35.491200000000028</v>
+        <v>-23.66080000000002</v>
       </c>
       <c r="N14" s="2">
         <f>M35*$T$20</f>
-        <v>-79.478116799999995</v>
+        <v>-52.512195200000008</v>
       </c>
       <c r="O14" s="2">
         <f>N35*$T$20</f>
-        <v>-93.029099570399964</v>
+        <v>-60.467546849599984</v>
       </c>
       <c r="P14" s="2">
         <f>O35*$T$20</f>
-        <v>-63.723878233369618</v>
+        <v>-39.758516726964295</v>
       </c>
       <c r="Q14" s="2">
         <f>P35*$T$20</f>
-        <v>26.078216048217598</v>
+        <v>20.972299141657782</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1283,23 +1286,23 @@
       </c>
       <c r="M16" s="2">
         <f t="shared" ref="M16" si="10">SUM(M13:M15)</f>
-        <v>-733.11527999999964</v>
+        <v>-721.28487999999959</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" ref="N16" si="11">SUM(N13:N15)</f>
-        <v>-225.84971283999954</v>
+        <v>-198.88379123999954</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" ref="O16" si="12">SUM(O13:O15)</f>
-        <v>542.68928401908033</v>
+        <v>575.25083673988024</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ref="P16" si="13">SUM(P13:P15)</f>
-        <v>1663.0017459553189</v>
+        <v>1686.9671074617243</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ref="Q16" si="14">SUM(Q13:Q15)</f>
-        <v>3256.0700332357956</v>
+        <v>3250.9641163292358</v>
       </c>
     </row>
     <row r="17" spans="1:118" x14ac:dyDescent="0.2">
@@ -1325,15 +1328,15 @@
       </c>
       <c r="O17" s="2">
         <f t="shared" si="15"/>
-        <v>54.268928401908035</v>
+        <v>57.525083673988028</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="15"/>
-        <v>166.3001745955319</v>
+        <v>168.69671074617244</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="15"/>
-        <v>618.65330631480117</v>
+        <v>617.68318210255484</v>
       </c>
     </row>
     <row r="18" spans="1:118" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1355,427 +1358,427 @@
       </c>
       <c r="M18" s="4">
         <f t="shared" ref="M18" si="17">M16-M17</f>
-        <v>-733.11527999999964</v>
+        <v>-721.28487999999959</v>
       </c>
       <c r="N18" s="4">
         <f t="shared" ref="N18" si="18">N16-N17</f>
-        <v>-225.84971283999954</v>
+        <v>-198.88379123999954</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" ref="O18" si="19">O16-O17</f>
-        <v>488.42035561717228</v>
+        <v>517.72575306589226</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" ref="P18" si="20">P16-P17</f>
-        <v>1496.7015713597871</v>
+        <v>1518.2703967155519</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" ref="Q18" si="21">Q16-Q17</f>
-        <v>2637.4167269209943</v>
+        <v>2633.280934226681</v>
       </c>
       <c r="R18" s="4">
-        <f>Q18*(1+$T$21)</f>
-        <v>2663.7908941902042</v>
+        <f t="shared" ref="R18:AW18" si="22">Q18*(1+$T$21)</f>
+        <v>2685.9465529112144</v>
       </c>
       <c r="S18" s="4">
-        <f>R18*(1+$T$21)</f>
-        <v>2690.4288031321062</v>
+        <f t="shared" si="22"/>
+        <v>2739.6654839694388</v>
       </c>
       <c r="T18" s="4">
-        <f>S18*(1+$T$21)</f>
-        <v>2717.3330911634271</v>
+        <f t="shared" si="22"/>
+        <v>2794.4587936488279</v>
       </c>
       <c r="U18" s="4">
-        <f>T18*(1+$T$21)</f>
-        <v>2744.5064220750614</v>
+        <f t="shared" si="22"/>
+        <v>2850.3479695218043</v>
       </c>
       <c r="V18" s="4">
-        <f>U18*(1+$T$21)</f>
-        <v>2771.9514862958122</v>
+        <f t="shared" si="22"/>
+        <v>2907.3549289122407</v>
       </c>
       <c r="W18" s="4">
-        <f>V18*(1+$T$21)</f>
-        <v>2799.6710011587702</v>
+        <f t="shared" si="22"/>
+        <v>2965.5020274904855</v>
       </c>
       <c r="X18" s="4">
-        <f>W18*(1+$T$21)</f>
-        <v>2827.667711170358</v>
+        <f t="shared" si="22"/>
+        <v>3024.8120680402953</v>
       </c>
       <c r="Y18" s="4">
-        <f>X18*(1+$T$21)</f>
-        <v>2855.9443882820615</v>
+        <f t="shared" si="22"/>
+        <v>3085.3083094011013</v>
       </c>
       <c r="Z18" s="4">
-        <f>Y18*(1+$T$21)</f>
-        <v>2884.5038321648822</v>
+        <f t="shared" si="22"/>
+        <v>3147.0144755891233</v>
       </c>
       <c r="AA18" s="4">
-        <f>Z18*(1+$T$21)</f>
-        <v>2913.3488704865308</v>
+        <f t="shared" si="22"/>
+        <v>3209.9547651009057</v>
       </c>
       <c r="AB18" s="4">
-        <f>AA18*(1+$T$21)</f>
-        <v>2942.482359191396</v>
+        <f t="shared" si="22"/>
+        <v>3274.1538604029238</v>
       </c>
       <c r="AC18" s="4">
-        <f>AB18*(1+$T$21)</f>
-        <v>2971.90718278331</v>
+        <f t="shared" si="22"/>
+        <v>3339.6369376109824</v>
       </c>
       <c r="AD18" s="4">
-        <f>AC18*(1+$T$21)</f>
-        <v>3001.6262546111429</v>
+        <f t="shared" si="22"/>
+        <v>3406.4296763632019</v>
       </c>
       <c r="AE18" s="4">
-        <f>AD18*(1+$T$21)</f>
-        <v>3031.6425171572546</v>
+        <f t="shared" si="22"/>
+        <v>3474.5582698904659</v>
       </c>
       <c r="AF18" s="4">
-        <f>AE18*(1+$T$21)</f>
-        <v>3061.9589423288271</v>
+        <f t="shared" si="22"/>
+        <v>3544.0494352882752</v>
       </c>
       <c r="AG18" s="4">
-        <f>AF18*(1+$T$21)</f>
-        <v>3092.5785317521154</v>
+        <f t="shared" si="22"/>
+        <v>3614.9304239940407</v>
       </c>
       <c r="AH18" s="4">
-        <f>AG18*(1+$T$21)</f>
-        <v>3123.5043170696367</v>
+        <f t="shared" si="22"/>
+        <v>3687.2290324739215</v>
       </c>
       <c r="AI18" s="4">
-        <f>AH18*(1+$T$21)</f>
-        <v>3154.7393602403331</v>
+        <f t="shared" si="22"/>
+        <v>3760.9736131233999</v>
       </c>
       <c r="AJ18" s="4">
-        <f>AI18*(1+$T$21)</f>
-        <v>3186.2867538427363</v>
+        <f t="shared" si="22"/>
+        <v>3836.193085385868</v>
       </c>
       <c r="AK18" s="4">
-        <f>AJ18*(1+$T$21)</f>
-        <v>3218.1496213811638</v>
+        <f t="shared" si="22"/>
+        <v>3912.9169470935853</v>
       </c>
       <c r="AL18" s="4">
-        <f>AK18*(1+$T$21)</f>
-        <v>3250.3311175949752</v>
+        <f t="shared" si="22"/>
+        <v>3991.1752860354572</v>
       </c>
       <c r="AM18" s="4">
-        <f>AL18*(1+$T$21)</f>
-        <v>3282.8344287709251</v>
+        <f t="shared" si="22"/>
+        <v>4070.9987917561666</v>
       </c>
       <c r="AN18" s="4">
-        <f>AM18*(1+$T$21)</f>
-        <v>3315.6627730586342</v>
+        <f t="shared" si="22"/>
+        <v>4152.4187675912899</v>
       </c>
       <c r="AO18" s="4">
-        <f>AN18*(1+$T$21)</f>
-        <v>3348.8194007892207</v>
+        <f t="shared" si="22"/>
+        <v>4235.4671429431155</v>
       </c>
       <c r="AP18" s="4">
-        <f>AO18*(1+$T$21)</f>
-        <v>3382.3075947971129</v>
+        <f t="shared" si="22"/>
+        <v>4320.1764858019778</v>
       </c>
       <c r="AQ18" s="4">
-        <f>AP18*(1+$T$21)</f>
-        <v>3416.130670745084</v>
+        <f t="shared" si="22"/>
+        <v>4406.5800155180177</v>
       </c>
       <c r="AR18" s="4">
-        <f>AQ18*(1+$T$21)</f>
-        <v>3450.2919774525349</v>
+        <f t="shared" si="22"/>
+        <v>4494.7116158283779</v>
       </c>
       <c r="AS18" s="4">
-        <f>AR18*(1+$T$21)</f>
-        <v>3484.7948972270601</v>
+        <f t="shared" si="22"/>
+        <v>4584.6058481449454</v>
       </c>
       <c r="AT18" s="4">
-        <f>AS18*(1+$T$21)</f>
-        <v>3519.642846199331</v>
+        <f t="shared" si="22"/>
+        <v>4676.297965107844</v>
       </c>
       <c r="AU18" s="4">
-        <f>AT18*(1+$T$21)</f>
-        <v>3554.8392746613245</v>
+        <f t="shared" si="22"/>
+        <v>4769.8239244100014</v>
       </c>
       <c r="AV18" s="4">
-        <f>AU18*(1+$T$21)</f>
-        <v>3590.3876674079379</v>
+        <f t="shared" si="22"/>
+        <v>4865.2204028982014</v>
       </c>
       <c r="AW18" s="4">
-        <f>AV18*(1+$T$21)</f>
-        <v>3626.2915440820175</v>
+        <f t="shared" si="22"/>
+        <v>4962.5248109561653</v>
       </c>
       <c r="AX18" s="4">
-        <f>AW18*(1+$T$21)</f>
-        <v>3662.5544595228375</v>
+        <f t="shared" ref="AX18:CC18" si="23">AW18*(1+$T$21)</f>
+        <v>5061.7753071752886</v>
       </c>
       <c r="AY18" s="4">
-        <f>AX18*(1+$T$21)</f>
-        <v>3699.1800041180659</v>
+        <f t="shared" si="23"/>
+        <v>5163.0108133187941</v>
       </c>
       <c r="AZ18" s="4">
-        <f>AY18*(1+$T$21)</f>
-        <v>3736.1718041592467</v>
+        <f t="shared" si="23"/>
+        <v>5266.2710295851703</v>
       </c>
       <c r="BA18" s="4">
-        <f>AZ18*(1+$T$21)</f>
-        <v>3773.5335222008393</v>
+        <f t="shared" si="23"/>
+        <v>5371.596450176874</v>
       </c>
       <c r="BB18" s="4">
-        <f>BA18*(1+$T$21)</f>
-        <v>3811.2688574228478</v>
+        <f t="shared" si="23"/>
+        <v>5479.0283791804113</v>
       </c>
       <c r="BC18" s="4">
-        <f>BB18*(1+$T$21)</f>
-        <v>3849.381545997076</v>
+        <f t="shared" si="23"/>
+        <v>5588.6089467640195</v>
       </c>
       <c r="BD18" s="4">
-        <f>BC18*(1+$T$21)</f>
-        <v>3887.8753614570469</v>
+        <f t="shared" si="23"/>
+        <v>5700.3811256993004</v>
       </c>
       <c r="BE18" s="4">
-        <f>BD18*(1+$T$21)</f>
-        <v>3926.7541150716174</v>
+        <f t="shared" si="23"/>
+        <v>5814.3887482132868</v>
       </c>
       <c r="BF18" s="4">
-        <f>BE18*(1+$T$21)</f>
-        <v>3966.0216562223336</v>
+        <f t="shared" si="23"/>
+        <v>5930.6765231775526</v>
       </c>
       <c r="BG18" s="4">
-        <f>BF18*(1+$T$21)</f>
-        <v>4005.6818727845571</v>
+        <f t="shared" si="23"/>
+        <v>6049.2900536411034</v>
       </c>
       <c r="BH18" s="4">
-        <f>BG18*(1+$T$21)</f>
-        <v>4045.7386915124025</v>
+        <f t="shared" si="23"/>
+        <v>6170.2758547139256</v>
       </c>
       <c r="BI18" s="4">
-        <f>BH18*(1+$T$21)</f>
-        <v>4086.1960784275266</v>
+        <f t="shared" si="23"/>
+        <v>6293.6813718082039</v>
       </c>
       <c r="BJ18" s="4">
-        <f>BI18*(1+$T$21)</f>
-        <v>4127.0580392118018</v>
+        <f t="shared" si="23"/>
+        <v>6419.5549992443684</v>
       </c>
       <c r="BK18" s="4">
-        <f>BJ18*(1+$T$21)</f>
-        <v>4168.3286196039198</v>
+        <f t="shared" si="23"/>
+        <v>6547.9460992292561</v>
       </c>
       <c r="BL18" s="4">
-        <f>BK18*(1+$T$21)</f>
-        <v>4210.0119057999591</v>
+        <f t="shared" si="23"/>
+        <v>6678.9050212138418</v>
       </c>
       <c r="BM18" s="4">
-        <f>BL18*(1+$T$21)</f>
-        <v>4252.1120248579591</v>
+        <f t="shared" si="23"/>
+        <v>6812.483121638119</v>
       </c>
       <c r="BN18" s="4">
-        <f>BM18*(1+$T$21)</f>
-        <v>4294.6331451065389</v>
+        <f t="shared" si="23"/>
+        <v>6948.7327840708813</v>
       </c>
       <c r="BO18" s="4">
-        <f>BN18*(1+$T$21)</f>
-        <v>4337.5794765576047</v>
+        <f t="shared" si="23"/>
+        <v>7087.7074397522993</v>
       </c>
       <c r="BP18" s="4">
-        <f>BO18*(1+$T$21)</f>
-        <v>4380.9552713231806</v>
+        <f t="shared" si="23"/>
+        <v>7229.4615885473449</v>
       </c>
       <c r="BQ18" s="4">
-        <f>BP18*(1+$T$21)</f>
-        <v>4424.7648240364124</v>
+        <f t="shared" si="23"/>
+        <v>7374.0508203182917</v>
       </c>
       <c r="BR18" s="4">
-        <f>BQ18*(1+$T$21)</f>
-        <v>4469.0124722767769</v>
+        <f t="shared" si="23"/>
+        <v>7521.5318367246573</v>
       </c>
       <c r="BS18" s="4">
-        <f>BR18*(1+$T$21)</f>
-        <v>4513.7025969995448</v>
+        <f t="shared" si="23"/>
+        <v>7671.9624734591507</v>
       </c>
       <c r="BT18" s="4">
-        <f>BS18*(1+$T$21)</f>
-        <v>4558.83962296954</v>
+        <f t="shared" si="23"/>
+        <v>7825.4017229283336</v>
       </c>
       <c r="BU18" s="4">
-        <f>BT18*(1+$T$21)</f>
-        <v>4604.4280191992357</v>
+        <f t="shared" si="23"/>
+        <v>7981.9097573869003</v>
       </c>
       <c r="BV18" s="4">
-        <f>BU18*(1+$T$21)</f>
-        <v>4650.4722993912283</v>
+        <f t="shared" si="23"/>
+        <v>8141.5479525346382</v>
       </c>
       <c r="BW18" s="4">
-        <f>BV18*(1+$T$21)</f>
-        <v>4696.977022385141</v>
+        <f t="shared" si="23"/>
+        <v>8304.3789115853306</v>
       </c>
       <c r="BX18" s="4">
-        <f>BW18*(1+$T$21)</f>
-        <v>4743.9467926089928</v>
+        <f t="shared" si="23"/>
+        <v>8470.4664898170377</v>
       </c>
       <c r="BY18" s="4">
-        <f>BX18*(1+$T$21)</f>
-        <v>4791.3862605350832</v>
+        <f t="shared" si="23"/>
+        <v>8639.8758196133786</v>
       </c>
       <c r="BZ18" s="4">
-        <f>BY18*(1+$T$21)</f>
-        <v>4839.3001231404342</v>
+        <f t="shared" si="23"/>
+        <v>8812.673336005646</v>
       </c>
       <c r="CA18" s="4">
-        <f>BZ18*(1+$T$21)</f>
-        <v>4887.6931243718382</v>
+        <f t="shared" si="23"/>
+        <v>8988.9268027257585</v>
       </c>
       <c r="CB18" s="4">
-        <f>CA18*(1+$T$21)</f>
-        <v>4936.5700556155562</v>
+        <f t="shared" si="23"/>
+        <v>9168.7053387802735</v>
       </c>
       <c r="CC18" s="4">
-        <f>CB18*(1+$T$21)</f>
-        <v>4985.9357561717115</v>
+        <f t="shared" si="23"/>
+        <v>9352.0794455558789</v>
       </c>
       <c r="CD18" s="4">
-        <f>CC18*(1+$T$21)</f>
-        <v>5035.7951137334285</v>
+        <f t="shared" ref="CD18:DN18" si="24">CC18*(1+$T$21)</f>
+        <v>9539.1210344669962</v>
       </c>
       <c r="CE18" s="4">
-        <f>CD18*(1+$T$21)</f>
-        <v>5086.153064870763</v>
+        <f t="shared" si="24"/>
+        <v>9729.9034551563363</v>
       </c>
       <c r="CF18" s="4">
-        <f>CE18*(1+$T$21)</f>
-        <v>5137.0145955194703</v>
+        <f t="shared" si="24"/>
+        <v>9924.5015242594636</v>
       </c>
       <c r="CG18" s="4">
-        <f>CF18*(1+$T$21)</f>
-        <v>5188.3847414746651</v>
+        <f t="shared" si="24"/>
+        <v>10122.991554744653</v>
       </c>
       <c r="CH18" s="4">
-        <f>CG18*(1+$T$21)</f>
-        <v>5240.2685888894121</v>
+        <f t="shared" si="24"/>
+        <v>10325.451385839546</v>
       </c>
       <c r="CI18" s="4">
-        <f>CH18*(1+$T$21)</f>
-        <v>5292.6712747783058</v>
+        <f t="shared" si="24"/>
+        <v>10531.960413556337</v>
       </c>
       <c r="CJ18" s="4">
-        <f>CI18*(1+$T$21)</f>
-        <v>5345.5979875260891</v>
+        <f t="shared" si="24"/>
+        <v>10742.599621827463</v>
       </c>
       <c r="CK18" s="4">
-        <f>CJ18*(1+$T$21)</f>
-        <v>5399.0539674013498</v>
+        <f t="shared" si="24"/>
+        <v>10957.451614264013</v>
       </c>
       <c r="CL18" s="4">
-        <f>CK18*(1+$T$21)</f>
-        <v>5453.0445070753631</v>
+        <f t="shared" si="24"/>
+        <v>11176.600646549294</v>
       </c>
       <c r="CM18" s="4">
-        <f>CL18*(1+$T$21)</f>
-        <v>5507.5749521461166</v>
+        <f t="shared" si="24"/>
+        <v>11400.132659480279</v>
       </c>
       <c r="CN18" s="4">
-        <f>CM18*(1+$T$21)</f>
-        <v>5562.6507016675778</v>
+        <f t="shared" si="24"/>
+        <v>11628.135312669885</v>
       </c>
       <c r="CO18" s="4">
-        <f>CN18*(1+$T$21)</f>
-        <v>5618.2772086842533</v>
+        <f t="shared" si="24"/>
+        <v>11860.698018923284</v>
       </c>
       <c r="CP18" s="4">
-        <f>CO18*(1+$T$21)</f>
-        <v>5674.4599807710956</v>
+        <f t="shared" si="24"/>
+        <v>12097.911979301749</v>
       </c>
       <c r="CQ18" s="4">
-        <f>CP18*(1+$T$21)</f>
-        <v>5731.2045805788066</v>
+        <f t="shared" si="24"/>
+        <v>12339.870218887783</v>
       </c>
       <c r="CR18" s="4">
-        <f>CQ18*(1+$T$21)</f>
-        <v>5788.5166263845949</v>
+        <f t="shared" si="24"/>
+        <v>12586.667623265539</v>
       </c>
       <c r="CS18" s="4">
-        <f>CR18*(1+$T$21)</f>
-        <v>5846.4017926484412</v>
+        <f t="shared" si="24"/>
+        <v>12838.40097573085</v>
       </c>
       <c r="CT18" s="4">
-        <f>CS18*(1+$T$21)</f>
-        <v>5904.8658105749255</v>
+        <f t="shared" si="24"/>
+        <v>13095.168995245467</v>
       </c>
       <c r="CU18" s="4">
-        <f>CT18*(1+$T$21)</f>
-        <v>5963.9144686806749</v>
+        <f t="shared" si="24"/>
+        <v>13357.072375150377</v>
       </c>
       <c r="CV18" s="4">
-        <f>CU18*(1+$T$21)</f>
-        <v>6023.5536133674814</v>
+        <f t="shared" si="24"/>
+        <v>13624.213822653384</v>
       </c>
       <c r="CW18" s="4">
-        <f>CV18*(1+$T$21)</f>
-        <v>6083.7891495011563</v>
+        <f t="shared" si="24"/>
+        <v>13896.698099106452</v>
       </c>
       <c r="CX18" s="4">
-        <f>CW18*(1+$T$21)</f>
-        <v>6144.627040996168</v>
+        <f t="shared" si="24"/>
+        <v>14174.632061088581</v>
       </c>
       <c r="CY18" s="4">
-        <f>CX18*(1+$T$21)</f>
-        <v>6206.0733114061295</v>
+        <f t="shared" si="24"/>
+        <v>14458.124702310353</v>
       </c>
       <c r="CZ18" s="4">
-        <f>CY18*(1+$T$21)</f>
-        <v>6268.1340445201913</v>
+        <f t="shared" si="24"/>
+        <v>14747.287196356561</v>
       </c>
       <c r="DA18" s="4">
-        <f>CZ18*(1+$T$21)</f>
-        <v>6330.8153849653936</v>
+        <f t="shared" si="24"/>
+        <v>15042.232940283693</v>
       </c>
       <c r="DB18" s="4">
-        <f>DA18*(1+$T$21)</f>
-        <v>6394.1235388150481</v>
+        <f t="shared" si="24"/>
+        <v>15343.077599089367</v>
       </c>
       <c r="DC18" s="4">
-        <f>DB18*(1+$T$21)</f>
-        <v>6458.0647742031988</v>
+        <f t="shared" si="24"/>
+        <v>15649.939151071154</v>
       </c>
       <c r="DD18" s="4">
-        <f>DC18*(1+$T$21)</f>
-        <v>6522.6454219452307</v>
+        <f t="shared" si="24"/>
+        <v>15962.937934092577</v>
       </c>
       <c r="DE18" s="4">
-        <f>DD18*(1+$T$21)</f>
-        <v>6587.8718761646833</v>
+        <f t="shared" si="24"/>
+        <v>16282.196692774429</v>
       </c>
       <c r="DF18" s="4">
-        <f>DE18*(1+$T$21)</f>
-        <v>6653.7505949263305</v>
+        <f t="shared" si="24"/>
+        <v>16607.840626629917</v>
       </c>
       <c r="DG18" s="4">
-        <f>DF18*(1+$T$21)</f>
-        <v>6720.288100875594</v>
+        <f t="shared" si="24"/>
+        <v>16939.997439162515</v>
       </c>
       <c r="DH18" s="4">
-        <f>DG18*(1+$T$21)</f>
-        <v>6787.4909818843498</v>
+        <f t="shared" si="24"/>
+        <v>17278.797387945764</v>
       </c>
       <c r="DI18" s="4">
-        <f>DH18*(1+$T$21)</f>
-        <v>6855.3658917031935</v>
+        <f t="shared" si="24"/>
+        <v>17624.37333570468</v>
       </c>
       <c r="DJ18" s="4">
-        <f>DI18*(1+$T$21)</f>
-        <v>6923.9195506202259</v>
+        <f t="shared" si="24"/>
+        <v>17976.860802418774</v>
       </c>
       <c r="DK18" s="4">
-        <f>DJ18*(1+$T$21)</f>
-        <v>6993.158746126428</v>
+        <f t="shared" si="24"/>
+        <v>18336.398018467149</v>
       </c>
       <c r="DL18" s="4">
-        <f>DK18*(1+$T$21)</f>
-        <v>7063.0903335876919</v>
+        <f t="shared" si="24"/>
+        <v>18703.125978836491</v>
       </c>
       <c r="DM18" s="4">
-        <f>DL18*(1+$T$21)</f>
-        <v>7133.7212369235685</v>
+        <f t="shared" si="24"/>
+        <v>19077.188498413223</v>
       </c>
       <c r="DN18" s="4">
-        <f>DM18*(1+$T$21)</f>
-        <v>7205.0584492928047</v>
+        <f t="shared" si="24"/>
+        <v>19458.732268381489</v>
       </c>
     </row>
     <row r="19" spans="1:118" x14ac:dyDescent="0.2">
@@ -1787,32 +1790,32 @@
         <v>-1.5591099916036939</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" ref="K19:L19" si="22">K18/K20</f>
+        <f t="shared" ref="K19:L19" si="25">K18/K20</f>
         <v>-1.8797242497972426</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-1.4348416988416985</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" ref="M19" si="23">M18/M20</f>
-        <v>-1.0783089244346382</v>
+        <f t="shared" ref="M19" si="26">M18/M20</f>
+        <v>-1.0609080786909353</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" ref="N19" si="24">N18/N20</f>
-        <v>-0.31637428146280328</v>
+        <f t="shared" ref="N19" si="27">N18/N20</f>
+        <v>-0.27859994045123776</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" ref="O19" si="25">O18/O20</f>
-        <v>0.65160751671077621</v>
+        <f t="shared" ref="O19" si="28">O18/O20</f>
+        <v>0.69070420266616273</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" ref="P19" si="26">P18/P20</f>
-        <v>1.9016835317105718</v>
+        <f t="shared" ref="P19" si="29">P18/P20</f>
+        <v>1.9290885139477016</v>
       </c>
       <c r="Q19" s="8">
-        <f t="shared" ref="Q19" si="27">Q18/Q20</f>
-        <v>3.1914826523925823</v>
+        <f t="shared" ref="Q19" si="30">Q18/Q20</f>
+        <v>3.1864780164156192</v>
       </c>
     </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.2">
@@ -1833,11 +1836,11 @@
         <v>679.875</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" ref="N20:Q20" si="28">M20*1.05</f>
+        <f t="shared" ref="N20:Q20" si="31">M20*1.05</f>
         <v>713.86874999999998</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>749.56218750000005</v>
       </c>
       <c r="P20" s="2">
@@ -1845,14 +1848,14 @@
         <v>787.04029687500008</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>826.39231171875008</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="T20" s="9">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="21" spans="1:118" x14ac:dyDescent="0.2">
@@ -1861,7 +1864,7 @@
         <v>39</v>
       </c>
       <c r="T21" s="9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="22" spans="1:118" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1870,38 +1873,38 @@
         <v>24</v>
       </c>
       <c r="K22" s="6">
-        <f>K4/J4-1</f>
+        <f t="shared" ref="K22:Q22" si="32">K4/J4-1</f>
         <v>0.25806741573033709</v>
       </c>
       <c r="L22" s="6">
-        <f>L4/K4-1</f>
+        <f t="shared" si="32"/>
         <v>0.28679622749356959</v>
       </c>
       <c r="M22" s="6">
-        <f>M4/L4-1</f>
+        <f t="shared" si="32"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="N22" s="6">
-        <f>N4/M4-1</f>
+        <f t="shared" si="32"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="O22" s="6">
-        <f>O4/N4-1</f>
+        <f t="shared" si="32"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="P22" s="6">
-        <f>P4/O4-1</f>
+        <f t="shared" si="32"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="Q22" s="6">
-        <f>Q4/P4-1</f>
+        <f t="shared" si="32"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="T22" s="9">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="23" spans="1:118" ht="15" x14ac:dyDescent="0.25">
@@ -1913,11 +1916,11 @@
         <v>-3.7839883236931737E-3</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" ref="K23:L23" si="29">K17/K16</f>
+        <f t="shared" ref="K23:L23" si="33">K17/K16</f>
         <v>-3.4528896370149769E-4</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-4.4326241134751776E-3</v>
       </c>
       <c r="M23" s="7">
@@ -1940,7 +1943,7 @@
       </c>
       <c r="T23" s="4">
         <f>NPV(T22,M33:XFD33)+main!D5-main!D6</f>
-        <v>34484.24451130275</v>
+        <v>33237.135717588084</v>
       </c>
     </row>
     <row r="24" spans="1:118" x14ac:dyDescent="0.2">
@@ -1957,7 +1960,7 @@
       </c>
       <c r="T24" s="2">
         <f>T23/main!D3</f>
-        <v>50.840496535078643</v>
+        <v>49.001870484131381</v>
       </c>
     </row>
     <row r="25" spans="1:118" x14ac:dyDescent="0.2">
@@ -1966,51 +1969,51 @@
       </c>
       <c r="T25" s="7">
         <f>T24/main!D2-1</f>
-        <v>-0.37233954894964638</v>
+        <v>-0.39503863599837796</v>
       </c>
     </row>
     <row r="26" spans="1:118" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="7">
         <f>(J4-J5)/J4</f>
         <v>0.75386516853932584</v>
       </c>
-      <c r="K26" s="11">
-        <f t="shared" ref="K26:L26" si="30">(K4-K5)/K4</f>
+      <c r="K26" s="7">
+        <f t="shared" ref="K26:L26" si="34">(K4-K5)/K4</f>
         <v>0.76811231780508715</v>
       </c>
-      <c r="L26" s="11">
-        <f t="shared" si="30"/>
+      <c r="L26" s="7">
+        <f t="shared" si="34"/>
         <v>0.77757912270960583</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="7">
         <f>L26*1.01</f>
         <v>0.78535491393670187</v>
       </c>
-      <c r="N26" s="11">
-        <f t="shared" ref="N26:Q26" si="31">M26*1.01</f>
+      <c r="N26" s="7">
+        <f t="shared" ref="N26:Q26" si="35">M26*1.01</f>
         <v>0.79320846307606885</v>
       </c>
-      <c r="O26" s="11">
-        <f t="shared" si="31"/>
+      <c r="O26" s="7">
+        <f t="shared" si="35"/>
         <v>0.80114054770682952</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="7">
         <f>O26*1.01</f>
         <v>0.80915195318389788</v>
       </c>
-      <c r="Q26" s="11">
-        <f t="shared" si="31"/>
+      <c r="Q26" s="7">
+        <f t="shared" si="35"/>
         <v>0.81724347271573683</v>
       </c>
     </row>
@@ -2024,31 +2027,31 @@
         <v>0.47350561797752816</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" ref="K27:Q27" si="32">K7/K4</f>
+        <f t="shared" ref="K27:Q27" si="36">K7/K4</f>
         <v>0.50348313803943989</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.52138811771238203</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.52535491393670186</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.53320846307606884</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.54114054770682951</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.54915195318389798</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.55724347271573682</v>
       </c>
     </row>
@@ -2057,35 +2060,35 @@
         <v>26</v>
       </c>
       <c r="J28" s="7">
-        <f>J13/J4</f>
+        <f t="shared" ref="J28:Q28" si="37">J13/J4</f>
         <v>-0.41521348314606726</v>
       </c>
       <c r="K28" s="7">
-        <f>K13/K4</f>
+        <f t="shared" si="37"/>
         <v>-0.44986067447842243</v>
       </c>
       <c r="L28" s="7">
-        <f>L13/L4</f>
+        <f t="shared" si="37"/>
         <v>-0.2951860077734591</v>
       </c>
       <c r="M28" s="7">
-        <f>M13/M4</f>
+        <f t="shared" si="37"/>
         <v>-0.14898220646649288</v>
       </c>
       <c r="N28" s="7">
-        <f>N13/N4</f>
+        <f t="shared" si="37"/>
         <v>-2.4045089355354769E-2</v>
       </c>
       <c r="O28" s="7">
-        <f>O13/O4</f>
+        <f t="shared" si="37"/>
         <v>8.0332448643369886E-2</v>
       </c>
       <c r="P28" s="7">
-        <f>P13/P4</f>
+        <f t="shared" si="37"/>
         <v>0.16784415275096809</v>
       </c>
       <c r="Q28" s="7">
-        <f>Q13/Q4</f>
+        <f t="shared" si="37"/>
         <v>0.2415132443804236</v>
       </c>
     </row>
@@ -2094,35 +2097,35 @@
         <v>27</v>
       </c>
       <c r="J29" s="7">
-        <f>J12/J4</f>
+        <f t="shared" ref="J29:Q29" si="38">J12/J4</f>
         <v>0.88871910112359542</v>
       </c>
       <c r="K29" s="7">
-        <f>K12/K4</f>
+        <f t="shared" si="38"/>
         <v>0.95334381251786227</v>
       </c>
       <c r="L29" s="7">
-        <f>L12/L4</f>
+        <f t="shared" si="38"/>
         <v>0.81657412548584107</v>
       </c>
       <c r="M29" s="7">
-        <f>M12/M4</f>
+        <f t="shared" si="38"/>
         <v>0.67433712040319471</v>
       </c>
       <c r="N29" s="7">
-        <f>N12/N4</f>
+        <f t="shared" si="38"/>
         <v>0.5572535524314236</v>
       </c>
       <c r="O29" s="7">
-        <f>O12/O4</f>
+        <f t="shared" si="38"/>
         <v>0.46080809906345965</v>
       </c>
       <c r="P29" s="7">
-        <f>P12/P4</f>
+        <f t="shared" si="38"/>
         <v>0.38130780043292983</v>
       </c>
       <c r="Q29" s="7">
-        <f>Q12/Q4</f>
+        <f t="shared" si="38"/>
         <v>0.31573022833531322</v>
       </c>
     </row>
@@ -2152,422 +2155,422 @@
       </c>
       <c r="P33" s="4">
         <f>P18*1.2</f>
-        <v>1796.0418856317444</v>
+        <v>1821.9244760586623</v>
       </c>
       <c r="Q33" s="4">
         <f>Q18*1.2</f>
-        <v>3164.9000723051931</v>
+        <v>3159.9371210720169</v>
       </c>
       <c r="R33" s="4">
-        <f t="shared" ref="R33:CC33" si="33">R18*1.1</f>
-        <v>2930.1699836092248</v>
+        <f t="shared" ref="R33:CC33" si="39">R18*1.1</f>
+        <v>2954.5412082023363</v>
       </c>
       <c r="S33" s="4">
-        <f t="shared" si="33"/>
-        <v>2959.471683445317</v>
+        <f t="shared" si="39"/>
+        <v>3013.6320323663831</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" si="33"/>
-        <v>2989.0664002797698</v>
+        <f t="shared" si="39"/>
+        <v>3073.9046730137111</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="33"/>
-        <v>3018.9570642825679</v>
+        <f t="shared" si="39"/>
+        <v>3135.3827664739852</v>
       </c>
       <c r="V33" s="4">
-        <f t="shared" si="33"/>
-        <v>3049.1466349253938</v>
+        <f t="shared" si="39"/>
+        <v>3198.0904218034648</v>
       </c>
       <c r="W33" s="4">
-        <f t="shared" si="33"/>
-        <v>3079.6381012746474</v>
+        <f t="shared" si="39"/>
+        <v>3262.0522302395343</v>
       </c>
       <c r="X33" s="4">
-        <f t="shared" si="33"/>
-        <v>3110.4344822873941</v>
+        <f t="shared" si="39"/>
+        <v>3327.293274844325</v>
       </c>
       <c r="Y33" s="4">
-        <f t="shared" si="33"/>
-        <v>3141.5388271102679</v>
+        <f t="shared" si="39"/>
+        <v>3393.8391403412115</v>
       </c>
       <c r="Z33" s="4">
-        <f t="shared" si="33"/>
-        <v>3172.9542153813704</v>
+        <f t="shared" si="39"/>
+        <v>3461.7159231480359</v>
       </c>
       <c r="AA33" s="4">
-        <f t="shared" si="33"/>
-        <v>3204.6837575351842</v>
+        <f t="shared" si="39"/>
+        <v>3530.9502416109967</v>
       </c>
       <c r="AB33" s="4">
-        <f t="shared" si="33"/>
-        <v>3236.7305951105359</v>
+        <f t="shared" si="39"/>
+        <v>3601.5692464432163</v>
       </c>
       <c r="AC33" s="4">
-        <f t="shared" si="33"/>
-        <v>3269.0979010616411</v>
+        <f t="shared" si="39"/>
+        <v>3673.6006313720809</v>
       </c>
       <c r="AD33" s="4">
-        <f t="shared" si="33"/>
-        <v>3301.7888800722576</v>
+        <f t="shared" si="39"/>
+        <v>3747.0726439995224</v>
       </c>
       <c r="AE33" s="4">
-        <f t="shared" si="33"/>
-        <v>3334.8067688729802</v>
+        <f t="shared" si="39"/>
+        <v>3822.0140968795126</v>
       </c>
       <c r="AF33" s="4">
-        <f t="shared" si="33"/>
-        <v>3368.15483656171</v>
+        <f t="shared" si="39"/>
+        <v>3898.4543788171031</v>
       </c>
       <c r="AG33" s="4">
-        <f t="shared" si="33"/>
-        <v>3401.8363849273273</v>
+        <f t="shared" si="39"/>
+        <v>3976.4234663934449</v>
       </c>
       <c r="AH33" s="4">
-        <f t="shared" si="33"/>
-        <v>3435.8547487766009</v>
+        <f t="shared" si="39"/>
+        <v>4055.9519357213139</v>
       </c>
       <c r="AI33" s="4">
-        <f t="shared" si="33"/>
-        <v>3470.2132962643668</v>
+        <f t="shared" si="39"/>
+        <v>4137.07097443574</v>
       </c>
       <c r="AJ33" s="4">
-        <f t="shared" si="33"/>
-        <v>3504.91542922701</v>
+        <f t="shared" si="39"/>
+        <v>4219.8123939244551</v>
       </c>
       <c r="AK33" s="4">
-        <f t="shared" si="33"/>
-        <v>3539.9645835192805</v>
+        <f t="shared" si="39"/>
+        <v>4304.2086418029439</v>
       </c>
       <c r="AL33" s="4">
-        <f t="shared" si="33"/>
-        <v>3575.3642293544731</v>
+        <f t="shared" si="39"/>
+        <v>4390.2928146390032</v>
       </c>
       <c r="AM33" s="4">
-        <f t="shared" si="33"/>
-        <v>3611.1178716480181</v>
+        <f t="shared" si="39"/>
+        <v>4478.098670931784</v>
       </c>
       <c r="AN33" s="4">
-        <f t="shared" si="33"/>
-        <v>3647.2290503644981</v>
+        <f t="shared" si="39"/>
+        <v>4567.6606443504197</v>
       </c>
       <c r="AO33" s="4">
-        <f t="shared" si="33"/>
-        <v>3683.7013408681432</v>
+        <f t="shared" si="39"/>
+        <v>4659.0138572374271</v>
       </c>
       <c r="AP33" s="4">
-        <f t="shared" si="33"/>
-        <v>3720.5383542768245</v>
+        <f t="shared" si="39"/>
+        <v>4752.1941343821763</v>
       </c>
       <c r="AQ33" s="4">
-        <f t="shared" si="33"/>
-        <v>3757.7437378195928</v>
+        <f t="shared" si="39"/>
+        <v>4847.2380170698198</v>
       </c>
       <c r="AR33" s="4">
-        <f t="shared" si="33"/>
-        <v>3795.3211751977888</v>
+        <f t="shared" si="39"/>
+        <v>4944.1827774112162</v>
       </c>
       <c r="AS33" s="4">
-        <f t="shared" si="33"/>
-        <v>3833.2743869497663</v>
+        <f t="shared" si="39"/>
+        <v>5043.0664329594401</v>
       </c>
       <c r="AT33" s="4">
-        <f t="shared" si="33"/>
-        <v>3871.6071308192645</v>
+        <f t="shared" si="39"/>
+        <v>5143.9277616186291</v>
       </c>
       <c r="AU33" s="4">
-        <f t="shared" si="33"/>
-        <v>3910.3232021274571</v>
+        <f t="shared" si="39"/>
+        <v>5246.8063168510016</v>
       </c>
       <c r="AV33" s="4">
-        <f t="shared" si="33"/>
-        <v>3949.4264341487319</v>
+        <f t="shared" si="39"/>
+        <v>5351.7424431880218</v>
       </c>
       <c r="AW33" s="4">
-        <f t="shared" si="33"/>
-        <v>3988.9206984902194</v>
+        <f t="shared" si="39"/>
+        <v>5458.7772920517818</v>
       </c>
       <c r="AX33" s="4">
-        <f t="shared" si="33"/>
-        <v>4028.8099054751215</v>
+        <f t="shared" si="39"/>
+        <v>5567.952837892818</v>
       </c>
       <c r="AY33" s="4">
-        <f t="shared" si="33"/>
-        <v>4069.0980045298729</v>
+        <f t="shared" si="39"/>
+        <v>5679.3118946506738</v>
       </c>
       <c r="AZ33" s="4">
-        <f t="shared" si="33"/>
-        <v>4109.7889845751715</v>
+        <f t="shared" si="39"/>
+        <v>5792.898132543688</v>
       </c>
       <c r="BA33" s="4">
-        <f t="shared" si="33"/>
-        <v>4150.886874420924</v>
+        <f t="shared" si="39"/>
+        <v>5908.7560951945616</v>
       </c>
       <c r="BB33" s="4">
-        <f t="shared" si="33"/>
-        <v>4192.3957431651324</v>
+        <f t="shared" si="39"/>
+        <v>6026.9312170984531</v>
       </c>
       <c r="BC33" s="4">
-        <f t="shared" si="33"/>
-        <v>4234.3197005967841</v>
+        <f t="shared" si="39"/>
+        <v>6147.469841440422</v>
       </c>
       <c r="BD33" s="4">
-        <f t="shared" si="33"/>
-        <v>4276.6628976027523</v>
+        <f t="shared" si="39"/>
+        <v>6270.4192382692308</v>
       </c>
       <c r="BE33" s="4">
-        <f t="shared" si="33"/>
-        <v>4319.4295265787796</v>
+        <f t="shared" si="39"/>
+        <v>6395.8276230346164</v>
       </c>
       <c r="BF33" s="4">
-        <f t="shared" si="33"/>
-        <v>4362.6238218445669</v>
+        <f t="shared" si="39"/>
+        <v>6523.7441754953079</v>
       </c>
       <c r="BG33" s="4">
-        <f t="shared" si="33"/>
-        <v>4406.2500600630128</v>
+        <f t="shared" si="39"/>
+        <v>6654.2190590052141</v>
       </c>
       <c r="BH33" s="4">
-        <f t="shared" si="33"/>
-        <v>4450.3125606636431</v>
+        <f t="shared" si="39"/>
+        <v>6787.3034401853183</v>
       </c>
       <c r="BI33" s="4">
-        <f t="shared" si="33"/>
-        <v>4494.8156862702799</v>
+        <f t="shared" si="39"/>
+        <v>6923.0495089890246</v>
       </c>
       <c r="BJ33" s="4">
-        <f t="shared" si="33"/>
-        <v>4539.7638431329824</v>
+        <f t="shared" si="39"/>
+        <v>7061.5104991688058</v>
       </c>
       <c r="BK33" s="4">
-        <f t="shared" si="33"/>
-        <v>4585.1614815643125</v>
+        <f t="shared" si="39"/>
+        <v>7202.7407091521827</v>
       </c>
       <c r="BL33" s="4">
-        <f t="shared" si="33"/>
-        <v>4631.0130963799556</v>
+        <f t="shared" si="39"/>
+        <v>7346.7955233352268</v>
       </c>
       <c r="BM33" s="4">
-        <f t="shared" si="33"/>
-        <v>4677.3232273437552</v>
+        <f t="shared" si="39"/>
+        <v>7493.7314338019314</v>
       </c>
       <c r="BN33" s="4">
-        <f t="shared" si="33"/>
-        <v>4724.0964596171934</v>
+        <f t="shared" si="39"/>
+        <v>7643.6060624779702</v>
       </c>
       <c r="BO33" s="4">
-        <f t="shared" si="33"/>
-        <v>4771.3374242133659</v>
+        <f t="shared" si="39"/>
+        <v>7796.4781837275295</v>
       </c>
       <c r="BP33" s="4">
-        <f t="shared" si="33"/>
-        <v>4819.0507984554988</v>
+        <f t="shared" si="39"/>
+        <v>7952.4077474020805</v>
       </c>
       <c r="BQ33" s="4">
-        <f t="shared" si="33"/>
-        <v>4867.2413064400544</v>
+        <f t="shared" si="39"/>
+        <v>8111.4559023501215</v>
       </c>
       <c r="BR33" s="4">
-        <f t="shared" si="33"/>
-        <v>4915.913719504455</v>
+        <f t="shared" si="39"/>
+        <v>8273.6850203971244</v>
       </c>
       <c r="BS33" s="4">
-        <f t="shared" si="33"/>
-        <v>4965.0728566994994</v>
+        <f t="shared" si="39"/>
+        <v>8439.158720805066</v>
       </c>
       <c r="BT33" s="4">
-        <f t="shared" si="33"/>
-        <v>5014.7235852664944</v>
+        <f t="shared" si="39"/>
+        <v>8607.9418952211672</v>
       </c>
       <c r="BU33" s="4">
-        <f t="shared" si="33"/>
-        <v>5064.8708211191597</v>
+        <f t="shared" si="39"/>
+        <v>8780.1007331255914</v>
       </c>
       <c r="BV33" s="4">
-        <f t="shared" si="33"/>
-        <v>5115.5195293303514</v>
+        <f t="shared" si="39"/>
+        <v>8955.702747788102</v>
       </c>
       <c r="BW33" s="4">
-        <f t="shared" si="33"/>
-        <v>5166.6747246236555</v>
+        <f t="shared" si="39"/>
+        <v>9134.8168027438642</v>
       </c>
       <c r="BX33" s="4">
-        <f t="shared" si="33"/>
-        <v>5218.3414718698923</v>
+        <f t="shared" si="39"/>
+        <v>9317.5131387987421</v>
       </c>
       <c r="BY33" s="4">
-        <f t="shared" si="33"/>
-        <v>5270.5248865885924</v>
+        <f t="shared" si="39"/>
+        <v>9503.8634015747175</v>
       </c>
       <c r="BZ33" s="4">
-        <f t="shared" si="33"/>
-        <v>5323.2301354544779</v>
+        <f t="shared" si="39"/>
+        <v>9693.9406696062106</v>
       </c>
       <c r="CA33" s="4">
-        <f t="shared" si="33"/>
-        <v>5376.4624368090226</v>
+        <f t="shared" si="39"/>
+        <v>9887.8194829983349</v>
       </c>
       <c r="CB33" s="4">
-        <f t="shared" si="33"/>
-        <v>5430.2270611771119</v>
+        <f t="shared" si="39"/>
+        <v>10085.575872658301</v>
       </c>
       <c r="CC33" s="4">
-        <f t="shared" si="33"/>
-        <v>5484.5293317888827</v>
+        <f t="shared" si="39"/>
+        <v>10287.287390111467</v>
       </c>
       <c r="CD33" s="4">
-        <f t="shared" ref="CD33:DP33" si="34">CD18*1.1</f>
-        <v>5539.3746251067714</v>
+        <f t="shared" ref="CD33:DP33" si="40">CD18*1.1</f>
+        <v>10493.033137913697</v>
       </c>
       <c r="CE33" s="4">
-        <f t="shared" si="34"/>
-        <v>5594.7683713578399</v>
+        <f t="shared" si="40"/>
+        <v>10702.893800671971</v>
       </c>
       <c r="CF33" s="4">
-        <f t="shared" si="34"/>
-        <v>5650.7160550714179</v>
+        <f t="shared" si="40"/>
+        <v>10916.95167668541</v>
       </c>
       <c r="CG33" s="4">
-        <f t="shared" si="34"/>
-        <v>5707.2232156221326</v>
+        <f t="shared" si="40"/>
+        <v>11135.290710219118</v>
       </c>
       <c r="CH33" s="4">
-        <f t="shared" si="34"/>
-        <v>5764.2954477783542</v>
+        <f t="shared" si="40"/>
+        <v>11357.996524423501</v>
       </c>
       <c r="CI33" s="4">
-        <f t="shared" si="34"/>
-        <v>5821.9384022561371</v>
+        <f t="shared" si="40"/>
+        <v>11585.156454911972</v>
       </c>
       <c r="CJ33" s="4">
-        <f t="shared" si="34"/>
-        <v>5880.1577862786989</v>
+        <f t="shared" si="40"/>
+        <v>11816.85958401021</v>
       </c>
       <c r="CK33" s="4">
-        <f t="shared" si="34"/>
-        <v>5938.9593641414849</v>
+        <f t="shared" si="40"/>
+        <v>12053.196775690416</v>
       </c>
       <c r="CL33" s="4">
-        <f t="shared" si="34"/>
-        <v>5998.3489577828996</v>
+        <f t="shared" si="40"/>
+        <v>12294.260711204224</v>
       </c>
       <c r="CM33" s="4">
-        <f t="shared" si="34"/>
-        <v>6058.332447360729</v>
+        <f t="shared" si="40"/>
+        <v>12540.145925428309</v>
       </c>
       <c r="CN33" s="4">
-        <f t="shared" si="34"/>
-        <v>6118.9157718343358</v>
+        <f t="shared" si="40"/>
+        <v>12790.948843936874</v>
       </c>
       <c r="CO33" s="4">
-        <f t="shared" si="34"/>
-        <v>6180.1049295526791</v>
+        <f t="shared" si="40"/>
+        <v>13046.767820815612</v>
       </c>
       <c r="CP33" s="4">
-        <f t="shared" si="34"/>
-        <v>6241.9059788482055</v>
+        <f t="shared" si="40"/>
+        <v>13307.703177231924</v>
       </c>
       <c r="CQ33" s="4">
-        <f t="shared" si="34"/>
-        <v>6304.3250386366881</v>
+        <f t="shared" si="40"/>
+        <v>13573.857240776562</v>
       </c>
       <c r="CR33" s="4">
-        <f t="shared" si="34"/>
-        <v>6367.3682890230548</v>
+        <f t="shared" si="40"/>
+        <v>13845.334385592094</v>
       </c>
       <c r="CS33" s="4">
-        <f t="shared" si="34"/>
-        <v>6431.041971913286</v>
+        <f t="shared" si="40"/>
+        <v>14122.241073303936</v>
       </c>
       <c r="CT33" s="4">
-        <f t="shared" si="34"/>
-        <v>6495.3523916324184</v>
+        <f t="shared" si="40"/>
+        <v>14404.685894770015</v>
       </c>
       <c r="CU33" s="4">
-        <f t="shared" si="34"/>
-        <v>6560.3059155487426</v>
+        <f t="shared" si="40"/>
+        <v>14692.779612665416</v>
       </c>
       <c r="CV33" s="4">
-        <f t="shared" si="34"/>
-        <v>6625.9089747042299</v>
+        <f t="shared" si="40"/>
+        <v>14986.635204918724</v>
       </c>
       <c r="CW33" s="4">
-        <f t="shared" si="34"/>
-        <v>6692.1680644512726</v>
+        <f t="shared" si="40"/>
+        <v>15286.367909017099</v>
       </c>
       <c r="CX33" s="4">
-        <f t="shared" si="34"/>
-        <v>6759.0897450957855</v>
+        <f t="shared" si="40"/>
+        <v>15592.095267197441</v>
       </c>
       <c r="CY33" s="4">
-        <f t="shared" si="34"/>
-        <v>6826.680642546743</v>
+        <f t="shared" si="40"/>
+        <v>15903.937172541389</v>
       </c>
       <c r="CZ33" s="4">
-        <f t="shared" si="34"/>
-        <v>6894.9474489722106</v>
+        <f t="shared" si="40"/>
+        <v>16222.015915992219</v>
       </c>
       <c r="DA33" s="4">
-        <f t="shared" si="34"/>
-        <v>6963.8969234619335</v>
+        <f t="shared" si="40"/>
+        <v>16546.456234312063</v>
       </c>
       <c r="DB33" s="4">
-        <f t="shared" si="34"/>
-        <v>7033.5358926965537</v>
+        <f t="shared" si="40"/>
+        <v>16877.385358998305</v>
       </c>
       <c r="DC33" s="4">
-        <f t="shared" si="34"/>
-        <v>7103.8712516235191</v>
+        <f t="shared" si="40"/>
+        <v>17214.93306617827</v>
       </c>
       <c r="DD33" s="4">
-        <f t="shared" si="34"/>
-        <v>7174.9099641397543</v>
+        <f t="shared" si="40"/>
+        <v>17559.231727501836</v>
       </c>
       <c r="DE33" s="4">
-        <f t="shared" si="34"/>
-        <v>7246.6590637811523</v>
+        <f t="shared" si="40"/>
+        <v>17910.416362051874</v>
       </c>
       <c r="DF33" s="4">
-        <f t="shared" si="34"/>
-        <v>7319.1256544189637</v>
+        <f t="shared" si="40"/>
+        <v>18268.624689292912</v>
       </c>
       <c r="DG33" s="4">
-        <f t="shared" si="34"/>
-        <v>7392.3169109631535</v>
+        <f t="shared" si="40"/>
+        <v>18633.997183078769</v>
       </c>
       <c r="DH33" s="4">
-        <f t="shared" si="34"/>
-        <v>7466.2400800727855</v>
+        <f t="shared" si="40"/>
+        <v>19006.677126740342</v>
       </c>
       <c r="DI33" s="4">
-        <f t="shared" si="34"/>
-        <v>7540.902480873513</v>
+        <f t="shared" si="40"/>
+        <v>19386.81066927515</v>
       </c>
       <c r="DJ33" s="4">
-        <f t="shared" si="34"/>
-        <v>7616.3115056822489</v>
+        <f t="shared" si="40"/>
+        <v>19774.546882660652</v>
       </c>
       <c r="DK33" s="4">
-        <f t="shared" si="34"/>
-        <v>7692.4746207390717</v>
+        <f t="shared" si="40"/>
+        <v>20170.037820313864</v>
       </c>
       <c r="DL33" s="4">
-        <f t="shared" si="34"/>
-        <v>7769.3993669464617</v>
+        <f t="shared" si="40"/>
+        <v>20573.438576720142</v>
       </c>
       <c r="DM33" s="4">
-        <f t="shared" si="34"/>
-        <v>7847.093360615926</v>
+        <f t="shared" si="40"/>
+        <v>20984.907348254546</v>
       </c>
       <c r="DN33" s="4">
-        <f t="shared" si="34"/>
-        <v>7925.5642942220857</v>
+        <f t="shared" si="40"/>
+        <v>21404.605495219639</v>
       </c>
       <c r="DO33" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="DP33" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -2581,23 +2584,23 @@
       </c>
       <c r="M35" s="2">
         <f>L35+M18</f>
-        <v>-1324.63528</v>
+        <v>-1312.8048800000001</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" ref="N35:Q35" si="35">M35+N18</f>
-        <v>-1550.4849928399994</v>
+        <f t="shared" ref="N35:Q35" si="41">M35+N18</f>
+        <v>-1511.6886712399996</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="35"/>
-        <v>-1062.0646372228271</v>
+        <f t="shared" si="41"/>
+        <v>-993.96291817410736</v>
       </c>
       <c r="P35" s="2">
         <f>O35+P18</f>
-        <v>434.63693413696001</v>
+        <v>524.30747854144454</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" si="35"/>
-        <v>3072.0536610579543</v>
+        <f t="shared" si="41"/>
+        <v>3157.5884127681256</v>
       </c>
     </row>
     <row r="36" spans="1:120" x14ac:dyDescent="0.2">
